--- a/ExamenIntermedioOI/lottery_sales_data.xlsx
+++ b/ExamenIntermedioOI/lottery_sales_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,23 +460,13 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cuarto Premio</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quinto Premio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Ventas Totales</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>45658</v>
       </c>
       <c r="B2" t="n">
         <v>1024.835707650562</v>
@@ -488,18 +478,12 @@
         <v>694.5188328418927</v>
       </c>
       <c r="E2" t="n">
-        <v>467.8375516820176</v>
-      </c>
-      <c r="F2" t="n">
-        <v>245.399195328364</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3319.026039392459</v>
+        <v>2605.789292382077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44928</v>
+        <v>45659</v>
       </c>
       <c r="B3" t="n">
         <v>995.3081205570243</v>
@@ -511,18 +495,12 @@
         <v>662.8987760229578</v>
       </c>
       <c r="E3" t="n">
-        <v>468.651115654851</v>
-      </c>
-      <c r="F3" t="n">
-        <v>235.0163963257081</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3272.045988381127</v>
+        <v>2568.378476400568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44929</v>
+        <v>45660</v>
       </c>
       <c r="B4" t="n">
         <v>1036.826588067309</v>
@@ -534,18 +512,12 @@
         <v>705.4668877455812</v>
       </c>
       <c r="E4" t="n">
-        <v>432.1595395488258</v>
-      </c>
-      <c r="F4" t="n">
-        <v>241.9141536144772</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3323.907252744016</v>
+        <v>2649.833559580713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44930</v>
+        <v>45661</v>
       </c>
       <c r="B5" t="n">
         <v>1082.813459542727</v>
@@ -557,18 +529,12 @@
         <v>644.3414682336687</v>
       </c>
       <c r="E5" t="n">
-        <v>485.1254870063466</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.1897375030068</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3370.688115559835</v>
+        <v>2644.372891050481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44931</v>
+        <v>45662</v>
       </c>
       <c r="B6" t="n">
         <v>997.1725739440651</v>
@@ -580,18 +546,12 @@
         <v>723.3529207463459</v>
       </c>
       <c r="E6" t="n">
-        <v>482.4171586646872</v>
-      </c>
-      <c r="F6" t="n">
-        <v>244.0125299044679</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3322.45624344394</v>
+        <v>2596.026554874785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44932</v>
+        <v>45663</v>
       </c>
       <c r="B7" t="n">
         <v>999.3896320262857</v>
@@ -603,18 +563,12 @@
         <v>711.2654678038363</v>
       </c>
       <c r="E7" t="n">
-        <v>495.0253409270745</v>
-      </c>
-      <c r="F7" t="n">
-        <v>257.3576141116625</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3372.334608940841</v>
+        <v>2619.951653902104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44933</v>
+        <v>45664</v>
       </c>
       <c r="B8" t="n">
         <v>1092.270810520113</v>
@@ -626,18 +580,12 @@
         <v>708.9865087260248</v>
       </c>
       <c r="E8" t="n">
-        <v>417.6976112066262</v>
-      </c>
-      <c r="F8" t="n">
-        <v>260.8308401131254</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3418.980919063514</v>
+        <v>2740.452467743762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44934</v>
+        <v>45665</v>
       </c>
       <c r="B9" t="n">
         <v>1053.892540947581</v>
@@ -649,18 +597,12 @@
         <v>735.6083764121773</v>
       </c>
       <c r="E9" t="n">
-        <v>520.8366535328064</v>
-      </c>
-      <c r="F9" t="n">
-        <v>258.7845415494975</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3544.27375444057</v>
+        <v>2764.652559358266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44935</v>
+        <v>45666</v>
       </c>
       <c r="B10" t="n">
         <v>994.2541579145789</v>
@@ -672,18 +614,12 @@
         <v>754.9188147210659</v>
       </c>
       <c r="E10" t="n">
-        <v>478.9912397935337</v>
-      </c>
-      <c r="F10" t="n">
-        <v>239.0858688012668</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3418.428631834372</v>
+        <v>2700.351523239572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44936</v>
+        <v>45667</v>
       </c>
       <c r="B11" t="n">
         <v>1047.058884245726</v>
@@ -695,18 +631,12 @@
         <v>742.0774204282186</v>
       </c>
       <c r="E11" t="n">
-        <v>503.4437512041434</v>
-      </c>
-      <c r="F11" t="n">
-        <v>258.3265782159013</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3556.784526472167</v>
+        <v>2795.014197052123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44937</v>
+        <v>45668</v>
       </c>
       <c r="B12" t="n">
         <v>998.9584297775245</v>
@@ -718,18 +648,12 @@
         <v>645.6419009106141</v>
       </c>
       <c r="E12" t="n">
-        <v>451.6177973158099</v>
-      </c>
-      <c r="F12" t="n">
-        <v>261.0539574816671</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3243.177477482365</v>
+        <v>2530.505722684888</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44938</v>
+        <v>45669</v>
       </c>
       <c r="B13" t="n">
         <v>1001.036183305812</v>
@@ -741,18 +665,12 @@
         <v>670.4417516472104</v>
       </c>
       <c r="E13" t="n">
-        <v>487.9287216597022</v>
-      </c>
-      <c r="F13" t="n">
-        <v>247.0095773196413</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3359.770814519233</v>
+        <v>2624.83251553989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44939</v>
+        <v>45670</v>
       </c>
       <c r="B14" t="n">
         <v>1038.608563565164</v>
@@ -764,18 +682,12 @@
         <v>689.0820023188007</v>
       </c>
       <c r="E14" t="n">
-        <v>457.2440689631517</v>
-      </c>
-      <c r="F14" t="n">
-        <v>249.0863252269584</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3365.223856649614</v>
+        <v>2658.893462459504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44940</v>
+        <v>45671</v>
       </c>
       <c r="B15" t="n">
         <v>933.0281390675266</v>
@@ -787,18 +699,12 @@
         <v>716.9528875141543</v>
       </c>
       <c r="E15" t="n">
-        <v>469.396770057666</v>
-      </c>
-      <c r="F15" t="n">
-        <v>252.1749892131419</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3374.101438128282</v>
+        <v>2652.529678857474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44941</v>
+        <v>45672</v>
       </c>
       <c r="B16" t="n">
         <v>944.6213849749433</v>
@@ -810,18 +716,12 @@
         <v>721.1925394108071</v>
       </c>
       <c r="E16" t="n">
-        <v>521.3467916586544</v>
-      </c>
-      <c r="F16" t="n">
-        <v>249.759151355162</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3322.343895763331</v>
+        <v>2551.237952749515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44942</v>
+        <v>45673</v>
       </c>
       <c r="B17" t="n">
         <v>1004.92095304957</v>
@@ -833,18 +733,12 @@
         <v>685.7320318350694</v>
       </c>
       <c r="E17" t="n">
-        <v>476.4736869728875</v>
-      </c>
-      <c r="F17" t="n">
-        <v>259.9872389380511</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3318.945396022599</v>
+        <v>2582.48447011166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44943</v>
+        <v>45674</v>
       </c>
       <c r="B18" t="n">
         <v>984.5542597366892</v>
@@ -856,18 +750,12 @@
         <v>715.2241296622224</v>
       </c>
       <c r="E18" t="n">
-        <v>488.3493967311809</v>
-      </c>
-      <c r="F18" t="n">
-        <v>253.8646213377224</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3343.028780226452</v>
+        <v>2600.814762157548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44944</v>
+        <v>45675</v>
       </c>
       <c r="B19" t="n">
         <v>1053.060609917825</v>
@@ -879,18 +767,12 @@
         <v>682.9003406672208</v>
       </c>
       <c r="E19" t="n">
-        <v>498.9306859957215</v>
-      </c>
-      <c r="F19" t="n">
-        <v>260.7080416962546</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3344.12850492686</v>
+        <v>2584.489777234885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44945</v>
+        <v>45676</v>
       </c>
       <c r="B20" t="n">
         <v>994.0909186895683</v>
@@ -902,18 +784,12 @@
         <v>694.366998287042</v>
       </c>
       <c r="E20" t="n">
-        <v>493.3471865744079</v>
-      </c>
-      <c r="F20" t="n">
-        <v>247.4582213725456</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3337.435913897793</v>
+        <v>2596.63050595084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44946</v>
+        <v>45677</v>
       </c>
       <c r="B21" t="n">
         <v>971.011781102472</v>
@@ -925,18 +801,12 @@
         <v>670.690091254444</v>
       </c>
       <c r="E21" t="n">
-        <v>484.8281736960105</v>
-      </c>
-      <c r="F21" t="n">
-        <v>251.4836276002142</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3276.151118236629</v>
+        <v>2539.839316940404</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44947</v>
+        <v>45678</v>
       </c>
       <c r="B22" t="n">
         <v>1117.034728405489</v>
@@ -948,18 +818,12 @@
         <v>691.6264822190324</v>
       </c>
       <c r="E22" t="n">
-        <v>491.9627842549922</v>
-      </c>
-      <c r="F22" t="n">
-        <v>264.1705499956592</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3515.515601142299</v>
+        <v>2759.382266891648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44948</v>
+        <v>45679</v>
       </c>
       <c r="B23" t="n">
         <v>1034.57879719331</v>
@@ -971,18 +835,12 @@
         <v>680.0422500145451</v>
       </c>
       <c r="E23" t="n">
-        <v>532.3195815932748</v>
-      </c>
-      <c r="F23" t="n">
-        <v>257.6271490819373</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3456.289986407594</v>
+        <v>2666.343255732382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44949</v>
+        <v>45680</v>
       </c>
       <c r="B24" t="n">
         <v>1051.348864523464</v>
@@ -994,18 +852,12 @@
         <v>698.9432433293439</v>
       </c>
       <c r="E24" t="n">
-        <v>485.7309301078895</v>
-      </c>
-      <c r="F24" t="n">
-        <v>274.3372223809365</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3526.719943793869</v>
+        <v>2766.651791305043</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44950</v>
+        <v>45681</v>
       </c>
       <c r="B25" t="n">
         <v>978.8289313136878</v>
@@ -1017,18 +869,12 @@
         <v>756.7143501886817</v>
       </c>
       <c r="E25" t="n">
-        <v>497.4199522029118</v>
-      </c>
-      <c r="F25" t="n">
-        <v>254.6089014890173</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3461.225054352597</v>
+        <v>2709.196200660669</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44951</v>
+        <v>45682</v>
       </c>
       <c r="B26" t="n">
         <v>1024.929662694338</v>
@@ -1040,18 +886,12 @@
         <v>692.2808986053417</v>
       </c>
       <c r="E26" t="n">
-        <v>508.7006973489253</v>
-      </c>
-      <c r="F26" t="n">
-        <v>262.3466767765308</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3406.993794604552</v>
+        <v>2635.946420479096</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44952</v>
+        <v>45683</v>
       </c>
       <c r="B27" t="n">
         <v>1059.765489746725</v>
@@ -1063,18 +903,12 @@
         <v>800.0946231348331</v>
       </c>
       <c r="E27" t="n">
-        <v>521.3077250771356</v>
-      </c>
-      <c r="F27" t="n">
-        <v>271.0505528786908</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3563.133841167108</v>
+        <v>2770.775563211282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44953</v>
+        <v>45684</v>
       </c>
       <c r="B28" t="n">
         <v>998.727880383928</v>
@@ -1086,18 +920,12 @@
         <v>742.1632328097214</v>
       </c>
       <c r="E28" t="n">
-        <v>517.867953094197</v>
-      </c>
-      <c r="F28" t="n">
-        <v>247.558649831098</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3468.289318421632</v>
+        <v>2702.862715496337</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44954</v>
+        <v>45685</v>
       </c>
       <c r="B29" t="n">
         <v>1077.107835091325</v>
@@ -1109,18 +937,12 @@
         <v>727.7248244720249</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1762605574026</v>
-      </c>
-      <c r="F29" t="n">
-        <v>243.3241247707407</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3453.192847459033</v>
+        <v>2703.692462130889</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44955</v>
+        <v>45686</v>
       </c>
       <c r="B30" t="n">
         <v>1030.323092594345</v>
@@ -1132,18 +954,12 @@
         <v>709.8397510053184</v>
       </c>
       <c r="E30" t="n">
-        <v>469.4658876820362</v>
-      </c>
-      <c r="F30" t="n">
-        <v>242.3610310405597</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3473.764443888096</v>
+        <v>2761.9375251655</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44956</v>
+        <v>45687</v>
       </c>
       <c r="B31" t="n">
         <v>1047.788696521915</v>
@@ -1155,18 +971,12 @@
         <v>755.4288449582477</v>
       </c>
       <c r="E31" t="n">
-        <v>530.2608687464782</v>
-      </c>
-      <c r="F31" t="n">
-        <v>276.6766047112354</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3609.110196628183</v>
+        <v>2802.172723170469</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44957</v>
+        <v>45688</v>
       </c>
       <c r="B32" t="n">
         <v>1034.292224404528</v>
@@ -1178,18 +988,12 @@
         <v>711.6738222593716</v>
       </c>
       <c r="E32" t="n">
-        <v>470.9914963719625</v>
-      </c>
-      <c r="F32" t="n">
-        <v>252.9560791814713</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3403.077862586396</v>
+        <v>2679.130287032962</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44958</v>
+        <v>45689</v>
       </c>
       <c r="B33" t="n">
         <v>1158.981003610657</v>
@@ -1201,18 +1005,12 @@
         <v>730.1171905410471</v>
       </c>
       <c r="E33" t="n">
-        <v>502.5112661129696</v>
-      </c>
-      <c r="F33" t="n">
-        <v>287.5565383450216</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3576.532393315294</v>
+        <v>2786.464588857303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44959</v>
+        <v>45690</v>
       </c>
       <c r="B34" t="n">
         <v>1067.666699499658</v>
@@ -1224,18 +1022,12 @@
         <v>815.8469539405795</v>
       </c>
       <c r="E34" t="n">
-        <v>490.6358026882928</v>
-      </c>
-      <c r="F34" t="n">
-        <v>255.4894164295664</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3642.033686063924</v>
+        <v>2895.908466946064</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44960</v>
+        <v>45691</v>
       </c>
       <c r="B35" t="n">
         <v>1017.414970706035</v>
@@ -1247,18 +1039,12 @@
         <v>731.0085449989147</v>
       </c>
       <c r="E35" t="n">
-        <v>496.6382944295636</v>
-      </c>
-      <c r="F35" t="n">
-        <v>263.9194459056927</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3459.081573023769</v>
+        <v>2698.523832688512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44961</v>
+        <v>45692</v>
       </c>
       <c r="B36" t="n">
         <v>1113.370776921922</v>
@@ -1270,18 +1056,12 @@
         <v>775.9487741010813</v>
       </c>
       <c r="E36" t="n">
-        <v>509.6675381428825</v>
-      </c>
-      <c r="F36" t="n">
-        <v>279.1365596033194</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3693.368203993745</v>
+        <v>2904.564106247543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44962</v>
+        <v>45693</v>
       </c>
       <c r="B37" t="n">
         <v>1013.127993130561</v>
@@ -1293,18 +1073,12 @@
         <v>709.2439959701475</v>
       </c>
       <c r="E37" t="n">
-        <v>503.519614157665</v>
-      </c>
-      <c r="F37" t="n">
-        <v>283.4969254231801</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3402.760362146124</v>
+        <v>2615.743822565279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44963</v>
+        <v>45694</v>
       </c>
       <c r="B38" t="n">
         <v>1086.523207095618</v>
@@ -1316,18 +1090,12 @@
         <v>735.1924958590909</v>
       </c>
       <c r="E38" t="n">
-        <v>508.7896756087669</v>
-      </c>
-      <c r="F38" t="n">
-        <v>284.9100087963167</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3557.356729027507</v>
+        <v>2763.657044622424</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44964</v>
+        <v>45695</v>
       </c>
       <c r="B39" t="n">
         <v>979.9891625020877</v>
@@ -1339,18 +1107,12 @@
         <v>791.8963002062908</v>
       </c>
       <c r="E39" t="n">
-        <v>538.9529228802326</v>
-      </c>
-      <c r="F39" t="n">
-        <v>279.7234883331699</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3547.448673117578</v>
+        <v>2728.772261904176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44965</v>
+        <v>45696</v>
       </c>
       <c r="B40" t="n">
         <v>1013.438384566591</v>
@@ -1362,18 +1124,12 @@
         <v>721.6297216549203</v>
       </c>
       <c r="E40" t="n">
-        <v>509.3727330003767</v>
-      </c>
-      <c r="F40" t="n">
-        <v>275.2474359604548</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3482.989486998802</v>
+        <v>2698.369318037971</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44966</v>
+        <v>45697</v>
       </c>
       <c r="B41" t="n">
         <v>1091.547736637543</v>
@@ -1385,18 +1141,12 @@
         <v>794.7578511143452</v>
       </c>
       <c r="E41" t="n">
-        <v>503.3745223432562</v>
-      </c>
-      <c r="F41" t="n">
-        <v>270.6536566951548</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3612.949661470153</v>
+        <v>2838.921482431742</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44967</v>
+        <v>45698</v>
       </c>
       <c r="B42" t="n">
         <v>1120.466559088788</v>
@@ -1408,18 +1158,12 @@
         <v>767.3380198444742</v>
       </c>
       <c r="E42" t="n">
-        <v>525.4328373858217</v>
-      </c>
-      <c r="F42" t="n">
-        <v>275.0355405180521</v>
-      </c>
-      <c r="G42" t="n">
-        <v>3688.068194111129</v>
+        <v>2887.599816207256</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44968</v>
+        <v>45699</v>
       </c>
       <c r="B43" t="n">
         <v>1093.931370162997</v>
@@ -1431,18 +1175,12 @@
         <v>723.3316388576503</v>
       </c>
       <c r="E43" t="n">
-        <v>526.1677561056572</v>
-      </c>
-      <c r="F43" t="n">
-        <v>262.12750966798</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3536.436959518079</v>
+        <v>2748.141693744441</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44969</v>
+        <v>45700</v>
       </c>
       <c r="B44" t="n">
         <v>1081.381047704816</v>
@@ -1454,18 +1192,12 @@
         <v>763.8676787491034</v>
       </c>
       <c r="E44" t="n">
-        <v>482.4999963018616</v>
-      </c>
-      <c r="F44" t="n">
-        <v>255.4007031608087</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3551.123120745602</v>
+        <v>2813.222421282931</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44970</v>
+        <v>45701</v>
       </c>
       <c r="B45" t="n">
         <v>1073.88917710383</v>
@@ -1477,18 +1209,12 @@
         <v>776.1488738673281</v>
       </c>
       <c r="E45" t="n">
-        <v>520.8406335370478</v>
-      </c>
-      <c r="F45" t="n">
-        <v>267.6891911562542</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3617.624108149954</v>
+        <v>2829.094283456652</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44971</v>
+        <v>45702</v>
       </c>
       <c r="B46" t="n">
         <v>1016.779177203995</v>
@@ -1500,18 +1226,12 @@
         <v>767.7194341460001</v>
       </c>
       <c r="E46" t="n">
-        <v>522.6775089497647</v>
-      </c>
-      <c r="F46" t="n">
-        <v>266.5069600142006</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3564.102772774604</v>
+        <v>2774.918303810638</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44972</v>
+        <v>45703</v>
       </c>
       <c r="B47" t="n">
         <v>1056.453622285429</v>
@@ -1523,18 +1243,12 @@
         <v>704.2174203780081</v>
       </c>
       <c r="E47" t="n">
-        <v>496.9488050526668</v>
-      </c>
-      <c r="F47" t="n">
-        <v>261.4017665530268</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3522.588237785362</v>
+        <v>2764.237666179668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44973</v>
+        <v>45704</v>
       </c>
       <c r="B48" t="n">
         <v>1071.133723680188</v>
@@ -1546,18 +1260,12 @@
         <v>723.371303909865</v>
       </c>
       <c r="E48" t="n">
-        <v>532.9175315484899</v>
-      </c>
-      <c r="F48" t="n">
-        <v>276.7887600750516</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3537.071537690641</v>
+        <v>2727.365246067099</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44974</v>
+        <v>45705</v>
       </c>
       <c r="B49" t="n">
         <v>1148.720515140537</v>
@@ -1569,18 +1277,12 @@
         <v>737.9429840060398</v>
       </c>
       <c r="E49" t="n">
-        <v>504.4389481917899</v>
-      </c>
-      <c r="F49" t="n">
-        <v>276.8198276708023</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3593.421282757471</v>
+        <v>2812.162506894879</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44975</v>
+        <v>45706</v>
       </c>
       <c r="B50" t="n">
         <v>1114.722616774822</v>
@@ -1592,18 +1294,12 @@
         <v>755.0732881438919</v>
       </c>
       <c r="E50" t="n">
-        <v>512.2355388023794</v>
-      </c>
-      <c r="F50" t="n">
-        <v>269.2159632024361</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3687.06010331407</v>
+        <v>2905.608601309254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44976</v>
+        <v>45707</v>
       </c>
       <c r="B51" t="n">
         <v>1011.045201001519</v>
@@ -1615,18 +1311,12 @@
         <v>772.1239729478197</v>
       </c>
       <c r="E51" t="n">
-        <v>508.5298443169668</v>
-      </c>
-      <c r="F51" t="n">
-        <v>283.0177269961804</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3563.571592857546</v>
+        <v>2772.024021544399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44977</v>
+        <v>45708</v>
       </c>
       <c r="B52" t="n">
         <v>1117.034779317596</v>
@@ -1638,18 +1328,12 @@
         <v>756.5722266514896</v>
       </c>
       <c r="E52" t="n">
-        <v>511.3010359559208</v>
-      </c>
-      <c r="F52" t="n">
-        <v>257.3793286238283</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3599.715851696617</v>
+        <v>2831.035487116868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44978</v>
+        <v>45709</v>
       </c>
       <c r="B53" t="n">
         <v>1083.187368667578</v>
@@ -1661,18 +1345,12 @@
         <v>721.0263590555707</v>
       </c>
       <c r="E53" t="n">
-        <v>486.0537272430105</v>
-      </c>
-      <c r="F53" t="n">
-        <v>264.6070746691826</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3602.092531673715</v>
+        <v>2851.431729761522</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44979</v>
+        <v>45710</v>
       </c>
       <c r="B54" t="n">
         <v>1070.18348509178</v>
@@ -1684,18 +1362,12 @@
         <v>767.5905867910808</v>
       </c>
       <c r="E54" t="n">
-        <v>484.3698750700532</v>
-      </c>
-      <c r="F54" t="n">
-        <v>259.4746813223928</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3571.287630241861</v>
+        <v>2827.443073849415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44980</v>
+        <v>45711</v>
       </c>
       <c r="B55" t="n">
         <v>1136.178380117721</v>
@@ -1707,18 +1379,12 @@
         <v>780.3708495554081</v>
       </c>
       <c r="E55" t="n">
-        <v>546.8650124903113</v>
-      </c>
-      <c r="F55" t="n">
-        <v>254.4900482134361</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3757.869668291744</v>
+        <v>2956.514607587997</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44981</v>
+        <v>45712</v>
       </c>
       <c r="B56" t="n">
         <v>1158.686084942265</v>
@@ -1730,18 +1396,12 @@
         <v>775.5632022088722</v>
       </c>
       <c r="E56" t="n">
-        <v>498.0715367815077</v>
-      </c>
-      <c r="F56" t="n">
-        <v>267.7075685832173</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3698.906627320468</v>
+        <v>2933.127521955742</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44982</v>
+        <v>45713</v>
       </c>
       <c r="B57" t="n">
         <v>1155.217911856546</v>
@@ -1753,18 +1413,12 @@
         <v>800.0532485972326</v>
       </c>
       <c r="E57" t="n">
-        <v>498.1390402308916</v>
-      </c>
-      <c r="F57" t="n">
-        <v>267.5772101194036</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3800.362243705596</v>
+        <v>3034.645993355301</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44983</v>
+        <v>45714</v>
       </c>
       <c r="B58" t="n">
         <v>1068.18677916911</v>
@@ -1776,18 +1430,12 @@
         <v>791.4613014224952</v>
       </c>
       <c r="E58" t="n">
-        <v>474.5373900022719</v>
-      </c>
-      <c r="F58" t="n">
-        <v>281.8177674986968</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3675.553673971406</v>
+        <v>2919.198516470437</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44984</v>
+        <v>45715</v>
       </c>
       <c r="B59" t="n">
         <v>1096.15644384402</v>
@@ -1799,18 +1447,12 @@
         <v>773.3707128142519</v>
       </c>
       <c r="E59" t="n">
-        <v>503.5046613822675</v>
-      </c>
-      <c r="F59" t="n">
-        <v>276.1319955110907</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3632.414542106134</v>
+        <v>2852.777885212776</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44985</v>
+        <v>45716</v>
       </c>
       <c r="B60" t="n">
         <v>1129.625012133626</v>
@@ -1822,18 +1464,12 @@
         <v>763.5796141645388</v>
       </c>
       <c r="E60" t="n">
-        <v>489.3209017736831</v>
-      </c>
-      <c r="F60" t="n">
-        <v>258.4025900467658</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3677.402929820908</v>
+        <v>2929.679438000459</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44986</v>
+        <v>45717</v>
       </c>
       <c r="B61" t="n">
         <v>1163.258965508871</v>
@@ -1845,18 +1481,12 @@
         <v>715.7428276718214</v>
       </c>
       <c r="E61" t="n">
-        <v>544.3072696310106</v>
-      </c>
-      <c r="F61" t="n">
-        <v>292.9179944569935</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3744.053359125191</v>
+        <v>2906.828095037188</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44987</v>
+        <v>45718</v>
       </c>
       <c r="B62" t="n">
         <v>1091.917683935316</v>
@@ -1868,18 +1498,12 @@
         <v>781.4781988062148</v>
       </c>
       <c r="E62" t="n">
-        <v>538.6947199985062</v>
-      </c>
-      <c r="F62" t="n">
-        <v>286.2550881206202</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3748.983838217547</v>
+        <v>2924.034030098421</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44988</v>
+        <v>45719</v>
       </c>
       <c r="B63" t="n">
         <v>1107.962686639769</v>
@@ -1891,18 +1515,12 @@
         <v>766.4675957605833</v>
       </c>
       <c r="E63" t="n">
-        <v>503.6820068616878</v>
-      </c>
-      <c r="F63" t="n">
-        <v>276.5883048154469</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3614.596432696627</v>
+        <v>2834.326121019492</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44989</v>
+        <v>45720</v>
       </c>
       <c r="B64" t="n">
         <v>1063.272421814123</v>
@@ -1914,18 +1532,12 @@
         <v>775.3449311238048</v>
       </c>
       <c r="E64" t="n">
-        <v>563.8188774250364</v>
-      </c>
-      <c r="F64" t="n">
-        <v>274.7348808568902</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3699.611748212744</v>
+        <v>2861.057989930817</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44990</v>
+        <v>45721</v>
       </c>
       <c r="B65" t="n">
         <v>1060.096419790303</v>
@@ -1937,18 +1549,12 @@
         <v>731.1387955468408</v>
       </c>
       <c r="E65" t="n">
-        <v>534.4118896922505</v>
-      </c>
-      <c r="F65" t="n">
-        <v>264.6781468008575</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3628.297274078735</v>
+        <v>2829.207237585627</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44991</v>
+        <v>45722</v>
       </c>
       <c r="B66" t="n">
         <v>1161.824425765665</v>
@@ -1960,18 +1566,12 @@
         <v>727.5263216589656</v>
       </c>
       <c r="E66" t="n">
-        <v>508.335258354106</v>
-      </c>
-      <c r="F66" t="n">
-        <v>268.151085003891</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3602.228461619033</v>
+        <v>2825.742118261036</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44992</v>
+        <v>45723</v>
       </c>
       <c r="B67" t="n">
         <v>1190.275088393766</v>
@@ -1983,18 +1583,12 @@
         <v>794.8892015696142</v>
       </c>
       <c r="E67" t="n">
-        <v>471.9860406455797</v>
-      </c>
-      <c r="F67" t="n">
-        <v>279.3287076546447</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3699.646676168529</v>
+        <v>2948.331927868305</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44993</v>
+        <v>45724</v>
       </c>
       <c r="B68" t="n">
         <v>1120.100875201247</v>
@@ -2006,18 +1600,12 @@
         <v>758.7143646958516</v>
       </c>
       <c r="E68" t="n">
-        <v>564.5708404335055</v>
-      </c>
-      <c r="F68" t="n">
-        <v>296.7432233587494</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3662.931209123285</v>
+        <v>2801.61714533103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44994</v>
+        <v>45725</v>
       </c>
       <c r="B69" t="n">
         <v>1175.089443713135</v>
@@ -2029,18 +1617,12 @@
         <v>788.6889912171346</v>
       </c>
       <c r="E69" t="n">
-        <v>494.3425693138549</v>
-      </c>
-      <c r="F69" t="n">
-        <v>286.499251977814</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3744.583166270296</v>
+        <v>2963.741344978627</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44995</v>
+        <v>45726</v>
       </c>
       <c r="B70" t="n">
         <v>1144.178930024045</v>
@@ -2052,18 +1634,12 @@
         <v>773.4275571720692</v>
       </c>
       <c r="E70" t="n">
-        <v>488.0736322867346</v>
-      </c>
-      <c r="F70" t="n">
-        <v>265.7382947651435</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3708.615700499566</v>
+        <v>2954.803773447688</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44996</v>
+        <v>45727</v>
       </c>
       <c r="B71" t="n">
         <v>1094.998180627663</v>
@@ -2075,18 +1651,12 @@
         <v>776.7949286829185</v>
       </c>
       <c r="E71" t="n">
-        <v>542.1325688516525</v>
-      </c>
-      <c r="F71" t="n">
-        <v>265.0179162238591</v>
-      </c>
-      <c r="G71" t="n">
-        <v>3743.441029219037</v>
+        <v>2936.290544143525</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44997</v>
+        <v>45728</v>
       </c>
       <c r="B72" t="n">
         <v>1146.453503157713</v>
@@ -2098,18 +1668,12 @@
         <v>799.510359892495</v>
       </c>
       <c r="E72" t="n">
-        <v>573.099573268952</v>
-      </c>
-      <c r="F72" t="n">
-        <v>280.8955643724657</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3813.275120530022</v>
+        <v>2959.279982888605</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44998</v>
+        <v>45729</v>
       </c>
       <c r="B73" t="n">
         <v>1206.387434117488</v>
@@ -2121,18 +1685,12 @@
         <v>763.3372066169877</v>
       </c>
       <c r="E73" t="n">
-        <v>548.713419349585</v>
-      </c>
-      <c r="F73" t="n">
-        <v>259.5340694381679</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3860.243979392181</v>
+        <v>3051.996490604428</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44999</v>
+        <v>45730</v>
       </c>
       <c r="B74" t="n">
         <v>1128.768336787217</v>
@@ -2144,18 +1702,12 @@
         <v>769.5114551882878</v>
       </c>
       <c r="E74" t="n">
-        <v>533.2531834169617</v>
-      </c>
-      <c r="F74" t="n">
-        <v>279.0689232320868</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3665.522384968851</v>
+        <v>2853.200278319802</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45000</v>
+        <v>45731</v>
       </c>
       <c r="B75" t="n">
         <v>1209.837834420216</v>
@@ -2167,18 +1719,12 @@
         <v>752.8784330337007</v>
       </c>
       <c r="E75" t="n">
-        <v>532.525190788482</v>
-      </c>
-      <c r="F75" t="n">
-        <v>274.4476235417646</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3720.522088955591</v>
+        <v>2913.549274625344</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45001</v>
+        <v>45732</v>
       </c>
       <c r="B76" t="n">
         <v>1001.636227454703</v>
@@ -2190,18 +1736,12 @@
         <v>758.8032528642406</v>
       </c>
       <c r="E76" t="n">
-        <v>538.5980295257064</v>
-      </c>
-      <c r="F76" t="n">
-        <v>272.0241344657263</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3567.702145227335</v>
+        <v>2757.079981235902</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45002</v>
+        <v>45733</v>
       </c>
       <c r="B77" t="n">
         <v>1174.708103605991</v>
@@ -2213,18 +1753,12 @@
         <v>766.6150044310745</v>
       </c>
       <c r="E77" t="n">
-        <v>537.7852635937347</v>
-      </c>
-      <c r="F77" t="n">
-        <v>260.8040913641515</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3772.136274022907</v>
+        <v>2973.546919065021</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45003</v>
+        <v>45734</v>
       </c>
       <c r="B78" t="n">
         <v>1138.926347177394</v>
@@ -2236,18 +1770,12 @@
         <v>781.0728133889392</v>
       </c>
       <c r="E78" t="n">
-        <v>529.9607073244756</v>
-      </c>
-      <c r="F78" t="n">
-        <v>281.2468705512418</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3743.850778248415</v>
+        <v>2932.643200372697</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45004</v>
+        <v>45735</v>
       </c>
       <c r="B79" t="n">
         <v>1120.556024661857</v>
@@ -2259,18 +1787,12 @@
         <v>752.2476798824573</v>
       </c>
       <c r="E79" t="n">
-        <v>523.8113469413436</v>
-      </c>
-      <c r="F79" t="n">
-        <v>270.3054047345454</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3596.983488432915</v>
+        <v>2802.866736757026</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45005</v>
+        <v>45736</v>
       </c>
       <c r="B80" t="n">
         <v>1140.998084344017</v>
@@ -2282,18 +1804,12 @@
         <v>812.9050154043193</v>
       </c>
       <c r="E80" t="n">
-        <v>526.8026571893383</v>
-      </c>
-      <c r="F80" t="n">
-        <v>264.3631064652794</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3756.931906670638</v>
+        <v>2965.76614301602</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45006</v>
+        <v>45737</v>
       </c>
       <c r="B81" t="n">
         <v>1037.906388420521</v>
@@ -2305,18 +1821,12 @@
         <v>742.9866540379853</v>
       </c>
       <c r="E81" t="n">
-        <v>506.2333072866912</v>
-      </c>
-      <c r="F81" t="n">
-        <v>245.4076754259657</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3486.073751313474</v>
+        <v>2734.432768600817</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45007</v>
+        <v>45738</v>
       </c>
       <c r="B82" t="n">
         <v>1127.147052635285</v>
@@ -2328,18 +1838,12 @@
         <v>773.4728513753017</v>
       </c>
       <c r="E82" t="n">
-        <v>518.9860424110591</v>
-      </c>
-      <c r="F82" t="n">
-        <v>275.2495845960317</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3736.861655856137</v>
+        <v>2942.626028849046</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45008</v>
+        <v>45739</v>
       </c>
       <c r="B83" t="n">
         <v>1156.803010250797</v>
@@ -2351,18 +1855,12 @@
         <v>765.4167108778124</v>
       </c>
       <c r="E83" t="n">
-        <v>490.1614874739572</v>
-      </c>
-      <c r="F83" t="n">
-        <v>290.478141049135</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3736.261485860822</v>
+        <v>2955.62185733773</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45009</v>
+        <v>45740</v>
       </c>
       <c r="B84" t="n">
         <v>1213.629646476474</v>
@@ -2374,18 +1872,12 @@
         <v>817.7858759328583</v>
       </c>
       <c r="E84" t="n">
-        <v>527.5057727531503</v>
-      </c>
-      <c r="F84" t="n">
-        <v>293.2101582686735</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3839.487182017228</v>
+        <v>3018.771250995405</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45010</v>
+        <v>45741</v>
       </c>
       <c r="B85" t="n">
         <v>1114.579738595053</v>
@@ -2397,18 +1889,12 @@
         <v>781.392382677891</v>
       </c>
       <c r="E85" t="n">
-        <v>506.2647159282649</v>
-      </c>
-      <c r="F85" t="n">
-        <v>270.0041589287109</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3667.238892902945</v>
+        <v>2890.970018045969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45011</v>
+        <v>45742</v>
       </c>
       <c r="B86" t="n">
         <v>1100.797540797134</v>
@@ -2420,18 +1906,12 @@
         <v>804.517567744894</v>
       </c>
       <c r="E86" t="n">
-        <v>506.4688588068913</v>
-      </c>
-      <c r="F86" t="n">
-        <v>268.66920946543</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3652.742166771939</v>
+        <v>2877.604098499618</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45012</v>
+        <v>45743</v>
       </c>
       <c r="B87" t="n">
         <v>1116.833938510169</v>
@@ -2443,18 +1923,12 @@
         <v>733.5076294736886</v>
       </c>
       <c r="E87" t="n">
-        <v>525.2173622461966</v>
-      </c>
-      <c r="F87" t="n">
-        <v>281.3438369232489</v>
-      </c>
-      <c r="G87" t="n">
-        <v>3671.116429664909</v>
+        <v>2864.555230495463</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45013</v>
+        <v>45744</v>
       </c>
       <c r="B88" t="n">
         <v>1188.362005499822</v>
@@ -2466,18 +1940,12 @@
         <v>791.2181890510891</v>
       </c>
       <c r="E88" t="n">
-        <v>555.398624477888</v>
-      </c>
-      <c r="F88" t="n">
-        <v>269.7743879788495</v>
-      </c>
-      <c r="G88" t="n">
-        <v>3867.268620069454</v>
+        <v>3042.095607612717</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45014</v>
+        <v>45745</v>
       </c>
       <c r="B89" t="n">
         <v>1159.6700527938</v>
@@ -2489,18 +1957,12 @@
         <v>802.1708183826536</v>
       </c>
       <c r="E89" t="n">
-        <v>547.1764128826378</v>
-      </c>
-      <c r="F89" t="n">
-        <v>282.0320597486215</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3773.473305082323</v>
+        <v>2944.264832451064</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45015</v>
+        <v>45746</v>
       </c>
       <c r="B90" t="n">
         <v>1117.355531927205</v>
@@ -2512,18 +1974,12 @@
         <v>783.7918696981845</v>
       </c>
       <c r="E90" t="n">
-        <v>495.7065917435775</v>
-      </c>
-      <c r="F90" t="n">
-        <v>281.6001703813159</v>
-      </c>
-      <c r="G90" t="n">
-        <v>3716.626411256162</v>
+        <v>2939.319649131269</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45016</v>
+        <v>45747</v>
       </c>
       <c r="B91" t="n">
         <v>1170.088372779636</v>
@@ -2535,18 +1991,12 @@
         <v>809.9632652705657</v>
       </c>
       <c r="E91" t="n">
-        <v>510.0737642452372</v>
-      </c>
-      <c r="F91" t="n">
-        <v>287.7117088881604</v>
-      </c>
-      <c r="G91" t="n">
-        <v>3780.27564462584</v>
+        <v>2982.490171492443</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45017</v>
+        <v>45748</v>
       </c>
       <c r="B92" t="n">
         <v>1149.830727665391</v>
@@ -2558,18 +2008,12 @@
         <v>761.4924205792261</v>
       </c>
       <c r="E92" t="n">
-        <v>543.9554058968826</v>
-      </c>
-      <c r="F92" t="n">
-        <v>277.8893698644865</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3723.417563640423</v>
+        <v>2901.572787879054</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45018</v>
+        <v>45749</v>
       </c>
       <c r="B93" t="n">
         <v>1193.931323500263</v>
@@ -2581,18 +2025,12 @@
         <v>822.7209853028128</v>
       </c>
       <c r="E93" t="n">
-        <v>511.7219802489627</v>
-      </c>
-      <c r="F93" t="n">
-        <v>273.6852753178504</v>
-      </c>
-      <c r="G93" t="n">
-        <v>3824.470741500628</v>
+        <v>3039.063485933815</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45019</v>
+        <v>45750</v>
       </c>
       <c r="B94" t="n">
         <v>1110.889011171606</v>
@@ -2604,18 +2042,12 @@
         <v>845.0891973191382</v>
       </c>
       <c r="E94" t="n">
-        <v>529.2129230781628</v>
-      </c>
-      <c r="F94" t="n">
-        <v>268.7397996133454</v>
-      </c>
-      <c r="G94" t="n">
-        <v>3731.203472095017</v>
+        <v>2933.250749403509</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45020</v>
+        <v>45751</v>
       </c>
       <c r="B95" t="n">
         <v>1130.071520738847</v>
@@ -2627,18 +2059,12 @@
         <v>767.5601082595504</v>
       </c>
       <c r="E95" t="n">
-        <v>537.0389040339404</v>
-      </c>
-      <c r="F95" t="n">
-        <v>270.0760124767426</v>
-      </c>
-      <c r="G95" t="n">
-        <v>3703.471427824067</v>
+        <v>2896.356511313384</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45021</v>
+        <v>45752</v>
       </c>
       <c r="B96" t="n">
         <v>1127.282563901895</v>
@@ -2650,18 +2076,12 @@
         <v>762.6600590864227</v>
       </c>
       <c r="E96" t="n">
-        <v>506.2543054347709</v>
-      </c>
-      <c r="F96" t="n">
-        <v>273.0382359361625</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3642.15868229269</v>
+        <v>2862.866140921757</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45022</v>
+        <v>45753</v>
       </c>
       <c r="B97" t="n">
         <v>1074.115968679933</v>
@@ -2673,18 +2093,12 @@
         <v>831.9099614708426</v>
       </c>
       <c r="E97" t="n">
-        <v>534.7151927046192</v>
-      </c>
-      <c r="F97" t="n">
-        <v>281.8535175559316</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3816.928615465207</v>
+        <v>3000.359905204656</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45023</v>
+        <v>45754</v>
       </c>
       <c r="B98" t="n">
         <v>1162.471904028646</v>
@@ -2696,18 +2110,12 @@
         <v>829.0057429393784</v>
       </c>
       <c r="E98" t="n">
-        <v>505.6864204657406</v>
-      </c>
-      <c r="F98" t="n">
-        <v>284.43766634399</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3807.792178399822</v>
+        <v>3017.668091590092</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45024</v>
+        <v>45755</v>
       </c>
       <c r="B99" t="n">
         <v>1161.063294719064</v>
@@ -2719,18 +2127,12 @@
         <v>763.1030912554697</v>
       </c>
       <c r="E99" t="n">
-        <v>513.7871686905506</v>
-      </c>
-      <c r="F99" t="n">
-        <v>268.0990335842656</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3702.878322289609</v>
+        <v>2920.992120014793</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45025</v>
+        <v>45756</v>
       </c>
       <c r="B100" t="n">
         <v>1148.581357758864</v>
@@ -2742,18 +2144,12 @@
         <v>769.8175944578339</v>
       </c>
       <c r="E100" t="n">
-        <v>532.9076720993307</v>
-      </c>
-      <c r="F100" t="n">
-        <v>292.9827898848766</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3776.567294347554</v>
+        <v>2950.676832363346</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45026</v>
+        <v>45757</v>
       </c>
       <c r="B101" t="n">
         <v>1136.882049730588</v>
@@ -2765,18 +2161,12 @@
         <v>772.6317263842822</v>
       </c>
       <c r="E101" t="n">
-        <v>494.947860527533</v>
-      </c>
-      <c r="F101" t="n">
-        <v>271.5558313221967</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3694.201676069502</v>
+        <v>2927.697984219772</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45027</v>
+        <v>45758</v>
       </c>
       <c r="B102" t="n">
         <v>1078.099221920713</v>
@@ -2788,18 +2178,12 @@
         <v>739.7936746258451</v>
       </c>
       <c r="E102" t="n">
-        <v>532.3359658310861</v>
-      </c>
-      <c r="F102" t="n">
-        <v>277.7934754442711</v>
-      </c>
-      <c r="G102" t="n">
-        <v>3636.087683251246</v>
+        <v>2825.958241975889</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45028</v>
+        <v>45759</v>
       </c>
       <c r="B103" t="n">
         <v>1128.062548858115</v>
@@ -2811,18 +2195,12 @@
         <v>756.4522080917693</v>
       </c>
       <c r="E103" t="n">
-        <v>524.7903908291966</v>
-      </c>
-      <c r="F103" t="n">
-        <v>269.7758852907181</v>
-      </c>
-      <c r="G103" t="n">
-        <v>3725.629807954454</v>
+        <v>2931.063531834539</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45029</v>
+        <v>45760</v>
       </c>
       <c r="B104" t="n">
         <v>1132.15692937166</v>
@@ -2834,18 +2212,12 @@
         <v>754.5263826659825</v>
       </c>
       <c r="E104" t="n">
-        <v>536.0194994341405</v>
-      </c>
-      <c r="F104" t="n">
-        <v>254.1180783802843</v>
-      </c>
-      <c r="G104" t="n">
-        <v>3729.571015349524</v>
+        <v>2939.433437535099</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45030</v>
+        <v>45761</v>
       </c>
       <c r="B105" t="n">
         <v>1109.347505703468</v>
@@ -2857,18 +2229,12 @@
         <v>756.241274545362</v>
       </c>
       <c r="E105" t="n">
-        <v>529.5869578016491</v>
-      </c>
-      <c r="F105" t="n">
-        <v>286.5414235766852</v>
-      </c>
-      <c r="G105" t="n">
-        <v>3680.70096162473</v>
+        <v>2864.572580246395</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45031</v>
+        <v>45762</v>
       </c>
       <c r="B106" t="n">
         <v>1141.536769479936</v>
@@ -2880,18 +2246,12 @@
         <v>778.3602655536183</v>
       </c>
       <c r="E106" t="n">
-        <v>554.5592571801334</v>
-      </c>
-      <c r="F106" t="n">
-        <v>287.544575701585</v>
-      </c>
-      <c r="G106" t="n">
-        <v>3762.402659288069</v>
+        <v>2920.298826406351</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45032</v>
+        <v>45763</v>
       </c>
       <c r="B107" t="n">
         <v>1169.914362503633</v>
@@ -2903,18 +2263,12 @@
         <v>787.8794161833016</v>
       </c>
       <c r="E107" t="n">
-        <v>530.6771595364507</v>
-      </c>
-      <c r="F107" t="n">
-        <v>274.9468043150442</v>
-      </c>
-      <c r="G107" t="n">
-        <v>3778.676566633052</v>
+        <v>2973.052602781557</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45033</v>
+        <v>45764</v>
       </c>
       <c r="B108" t="n">
         <v>1244.103073362933</v>
@@ -2926,18 +2280,12 @@
         <v>819.9481301047457</v>
       </c>
       <c r="E108" t="n">
-        <v>522.7242135089321</v>
-      </c>
-      <c r="F108" t="n">
-        <v>277.6010841836232</v>
-      </c>
-      <c r="G108" t="n">
-        <v>3805.944984549029</v>
+        <v>3005.619686856473</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45034</v>
+        <v>45765</v>
       </c>
       <c r="B109" t="n">
         <v>1158.575945498007</v>
@@ -2949,18 +2297,12 @@
         <v>745.7003712863842</v>
       </c>
       <c r="E109" t="n">
-        <v>526.25480913185</v>
-      </c>
-      <c r="F109" t="n">
-        <v>282.404284061509</v>
-      </c>
-      <c r="G109" t="n">
-        <v>3677.363005924741</v>
+        <v>2868.703912731382</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45035</v>
+        <v>45766</v>
       </c>
       <c r="B110" t="n">
         <v>1162.749301234868</v>
@@ -2972,18 +2314,12 @@
         <v>816.6574735915606</v>
       </c>
       <c r="E110" t="n">
-        <v>541.6804206193756</v>
-      </c>
-      <c r="F110" t="n">
-        <v>263.116939832818</v>
-      </c>
-      <c r="G110" t="n">
-        <v>3864.251461458873</v>
+        <v>3059.45410100668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45036</v>
+        <v>45767</v>
       </c>
       <c r="B111" t="n">
         <v>1146.145803874736</v>
@@ -2995,18 +2331,12 @@
         <v>781.5419713368575</v>
       </c>
       <c r="E111" t="n">
-        <v>528.1786384054177</v>
-      </c>
-      <c r="F111" t="n">
-        <v>272.0509569996877</v>
-      </c>
-      <c r="G111" t="n">
-        <v>3817.32513927466</v>
+        <v>3017.095543869555</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45037</v>
+        <v>45768</v>
       </c>
       <c r="B112" t="n">
         <v>1053.897597236265</v>
@@ -3018,18 +2348,12 @@
         <v>777.8475079653917</v>
       </c>
       <c r="E112" t="n">
-        <v>527.5310478211037</v>
-      </c>
-      <c r="F112" t="n">
-        <v>285.1629831785721</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3648.736380743678</v>
+        <v>2836.042349744002</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45038</v>
+        <v>45769</v>
       </c>
       <c r="B113" t="n">
         <v>1148.450420566581</v>
@@ -3041,18 +2365,12 @@
         <v>803.6730745734357</v>
       </c>
       <c r="E113" t="n">
-        <v>515.1379194368253</v>
-      </c>
-      <c r="F113" t="n">
-        <v>263.3761205797985</v>
-      </c>
-      <c r="G113" t="n">
-        <v>3777.265747206763</v>
+        <v>2998.751707190139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45039</v>
+        <v>45770</v>
       </c>
       <c r="B114" t="n">
         <v>1152.699645126595</v>
@@ -3064,18 +2382,12 @@
         <v>748.5582679706605</v>
       </c>
       <c r="E114" t="n">
-        <v>510.2730622978644</v>
-      </c>
-      <c r="F114" t="n">
-        <v>278.3005124773614</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3726.101966270516</v>
+        <v>2937.528391495291</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45040</v>
+        <v>45771</v>
       </c>
       <c r="B115" t="n">
         <v>1272.734498728062</v>
@@ -3087,18 +2399,12 @@
         <v>805.7943879172058</v>
       </c>
       <c r="E115" t="n">
-        <v>501.0562905972459</v>
-      </c>
-      <c r="F115" t="n">
-        <v>260.8042896342502</v>
-      </c>
-      <c r="G115" t="n">
-        <v>3999.176063570819</v>
+        <v>3237.315483339322</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45041</v>
+        <v>45772</v>
       </c>
       <c r="B116" t="n">
         <v>1139.811023980253</v>
@@ -3110,18 +2416,12 @@
         <v>789.9417452410628</v>
       </c>
       <c r="E116" t="n">
-        <v>562.3573382755687</v>
-      </c>
-      <c r="F116" t="n">
-        <v>285.085848095754</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3844.103312223494</v>
+        <v>2996.660125852171</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45042</v>
+        <v>45773</v>
       </c>
       <c r="B117" t="n">
         <v>1164.33572972262</v>
@@ -3133,18 +2433,12 @@
         <v>794.7509114235864</v>
       </c>
       <c r="E117" t="n">
-        <v>502.8011714769087</v>
-      </c>
-      <c r="F117" t="n">
-        <v>274.0253748459039</v>
-      </c>
-      <c r="G117" t="n">
-        <v>3755.136746866802</v>
+        <v>2978.310200543989</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45043</v>
+        <v>45774</v>
       </c>
       <c r="B118" t="n">
         <v>1147.324874524159</v>
@@ -3156,18 +2450,12 @@
         <v>784.9272611464812</v>
       </c>
       <c r="E118" t="n">
-        <v>512.6588073624987</v>
-      </c>
-      <c r="F118" t="n">
-        <v>259.1266551790791</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3688.196838448155</v>
+        <v>2916.411375906577</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45044</v>
+        <v>45775</v>
       </c>
       <c r="B119" t="n">
         <v>1090.401678351492</v>
@@ -3179,18 +2467,12 @@
         <v>846.4754302578899</v>
       </c>
       <c r="E119" t="n">
-        <v>518.1136298073924</v>
-      </c>
-      <c r="F119" t="n">
-        <v>287.3758725718046</v>
-      </c>
-      <c r="G119" t="n">
-        <v>3694.517390199399</v>
+        <v>2889.027887820203</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45045</v>
+        <v>45776</v>
       </c>
       <c r="B120" t="n">
         <v>1205.725069799242</v>
@@ -3202,18 +2484,12 @@
         <v>761.7959774838957</v>
       </c>
       <c r="E120" t="n">
-        <v>541.7116569166748</v>
-      </c>
-      <c r="F120" t="n">
-        <v>270.6420357383852</v>
-      </c>
-      <c r="G120" t="n">
-        <v>3815.652935611603</v>
+        <v>3003.299242956544</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45046</v>
+        <v>45777</v>
       </c>
       <c r="B121" t="n">
         <v>1185.902383897288</v>
@@ -3225,18 +2501,12 @@
         <v>760.6616101465866</v>
       </c>
       <c r="E121" t="n">
-        <v>517.5894603539978</v>
-      </c>
-      <c r="F121" t="n">
-        <v>267.3675681178458</v>
-      </c>
-      <c r="G121" t="n">
-        <v>3726.601816904434</v>
+        <v>2941.644788432591</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45047</v>
+        <v>45778</v>
       </c>
       <c r="B122" t="n">
         <v>1187.552817749506</v>
@@ -3248,18 +2518,12 @@
         <v>754.9331274165618</v>
       </c>
       <c r="E122" t="n">
-        <v>547.6486423540723</v>
-      </c>
-      <c r="F122" t="n">
-        <v>280.3708002871874</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3738.771497516254</v>
+        <v>2910.752054874994</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45048</v>
+        <v>45779</v>
       </c>
       <c r="B123" t="n">
         <v>1102.201259131195</v>
@@ -3271,18 +2535,12 @@
         <v>758.877437151768</v>
       </c>
       <c r="E123" t="n">
-        <v>509.3861839786723</v>
-      </c>
-      <c r="F123" t="n">
-        <v>285.9091182663408</v>
-      </c>
-      <c r="G123" t="n">
-        <v>3646.76771456814</v>
+        <v>2851.472412323127</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45049</v>
+        <v>45780</v>
       </c>
       <c r="B124" t="n">
         <v>1217.453928351796</v>
@@ -3294,18 +2552,12 @@
         <v>755.4803981572587</v>
       </c>
       <c r="E124" t="n">
-        <v>527.8536081821983</v>
-      </c>
-      <c r="F124" t="n">
-        <v>265.989985189434</v>
-      </c>
-      <c r="G124" t="n">
-        <v>3750.912762815285</v>
+        <v>2957.069169443652</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45050</v>
+        <v>45781</v>
       </c>
       <c r="B125" t="n">
         <v>1076.839663835369</v>
@@ -3317,18 +2569,12 @@
         <v>819.5713666548588</v>
       </c>
       <c r="E125" t="n">
-        <v>511.7230823902838</v>
-      </c>
-      <c r="F125" t="n">
-        <v>275.0255501325046</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3763.575068379441</v>
+        <v>2976.826435856653</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45051</v>
+        <v>45782</v>
       </c>
       <c r="B126" t="n">
         <v>1175.86776042532</v>
@@ -3340,18 +2586,12 @@
         <v>823.8972999717549</v>
       </c>
       <c r="E126" t="n">
-        <v>571.5026748467658</v>
-      </c>
-      <c r="F126" t="n">
-        <v>284.5434136350436</v>
-      </c>
-      <c r="G126" t="n">
-        <v>3913.483439787639</v>
+        <v>3057.43735130583</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45052</v>
+        <v>45783</v>
       </c>
       <c r="B127" t="n">
         <v>1255.615329232363</v>
@@ -3363,18 +2603,12 @@
         <v>760.9948065150402</v>
       </c>
       <c r="E127" t="n">
-        <v>498.2845314476592</v>
-      </c>
-      <c r="F127" t="n">
-        <v>279.7280188057701</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3824.239351624895</v>
+        <v>3046.226801371466</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45053</v>
+        <v>45784</v>
       </c>
       <c r="B128" t="n">
         <v>1096.108603615857</v>
@@ -3386,18 +2620,12 @@
         <v>757.0822809118177</v>
       </c>
       <c r="E128" t="n">
-        <v>527.5588102446787</v>
-      </c>
-      <c r="F128" t="n">
-        <v>277.3473805517183</v>
-      </c>
-      <c r="G128" t="n">
-        <v>3730.814037139171</v>
+        <v>2925.907846342774</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45054</v>
+        <v>45785</v>
       </c>
       <c r="B129" t="n">
         <v>1116.838918664453</v>
@@ -3409,18 +2637,12 @@
         <v>790.3549166071494</v>
       </c>
       <c r="E129" t="n">
-        <v>537.0725513371935</v>
-      </c>
-      <c r="F129" t="n">
-        <v>272.7177377718044</v>
-      </c>
-      <c r="G129" t="n">
-        <v>3735.185792668624</v>
+        <v>2925.395503559626</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45055</v>
+        <v>45786</v>
       </c>
       <c r="B130" t="n">
         <v>1149.630562886477</v>
@@ -3432,18 +2654,12 @@
         <v>755.7651138449469</v>
       </c>
       <c r="E130" t="n">
-        <v>528.9116911863625</v>
-      </c>
-      <c r="F130" t="n">
-        <v>267.144865838568</v>
-      </c>
-      <c r="G130" t="n">
-        <v>3684.882317697547</v>
+        <v>2888.825760672616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45056</v>
+        <v>45787</v>
       </c>
       <c r="B131" t="n">
         <v>1118.944503672451</v>
@@ -3455,18 +2671,12 @@
         <v>800.0803306156863</v>
       </c>
       <c r="E131" t="n">
-        <v>521.049594435319</v>
-      </c>
-      <c r="F131" t="n">
-        <v>275.340055549648</v>
-      </c>
-      <c r="G131" t="n">
-        <v>3790.628526833746</v>
+        <v>2994.238876848779</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45057</v>
+        <v>45788</v>
       </c>
       <c r="B132" t="n">
         <v>1066.031813954565</v>
@@ -3478,18 +2688,12 @@
         <v>782.2278390851759</v>
       </c>
       <c r="E132" t="n">
-        <v>520.0523641169976</v>
-      </c>
-      <c r="F132" t="n">
-        <v>263.496843393418</v>
-      </c>
-      <c r="G132" t="n">
-        <v>3661.820432099296</v>
+        <v>2878.271224588881</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45058</v>
+        <v>45789</v>
       </c>
       <c r="B133" t="n">
         <v>1146.416552877005</v>
@@ -3501,18 +2705,12 @@
         <v>724.6649722745061</v>
       </c>
       <c r="E133" t="n">
-        <v>517.4380883217144</v>
-      </c>
-      <c r="F133" t="n">
-        <v>244.5779848245662</v>
-      </c>
-      <c r="G133" t="n">
-        <v>3607.540130721798</v>
+        <v>2845.524057575517</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45059</v>
+        <v>45790</v>
       </c>
       <c r="B134" t="n">
         <v>1089.273675592749</v>
@@ -3524,18 +2722,12 @@
         <v>818.8609637532518</v>
       </c>
       <c r="E134" t="n">
-        <v>522.7016008543771</v>
-      </c>
-      <c r="F134" t="n">
-        <v>278.5135303828253</v>
-      </c>
-      <c r="G134" t="n">
-        <v>3711.374680042377</v>
+        <v>2910.159548805175</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45060</v>
+        <v>45791</v>
       </c>
       <c r="B135" t="n">
         <v>1165.44630428496</v>
@@ -3547,18 +2739,12 @@
         <v>823.7996644943529</v>
       </c>
       <c r="E135" t="n">
-        <v>545.064221886614</v>
-      </c>
-      <c r="F135" t="n">
-        <v>285.2491071501635</v>
-      </c>
-      <c r="G135" t="n">
-        <v>3801.192544311757</v>
+        <v>2970.879215274979</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45061</v>
+        <v>45792</v>
       </c>
       <c r="B136" t="n">
         <v>1095.15098937317</v>
@@ -3570,18 +2756,12 @@
         <v>748.2597469930472</v>
       </c>
       <c r="E136" t="n">
-        <v>562.0853151650756</v>
-      </c>
-      <c r="F136" t="n">
-        <v>254.1036473780611</v>
-      </c>
-      <c r="G136" t="n">
-        <v>3613.300569475985</v>
+        <v>2797.111606932848</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45062</v>
+        <v>45793</v>
       </c>
       <c r="B137" t="n">
         <v>1217.952475659526</v>
@@ -3593,18 +2773,12 @@
         <v>764.9131018265234</v>
       </c>
       <c r="E137" t="n">
-        <v>508.0237766459552</v>
-      </c>
-      <c r="F137" t="n">
-        <v>262.0462216992259</v>
-      </c>
-      <c r="G137" t="n">
-        <v>3810.642529625367</v>
+        <v>3040.572531280186</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45063</v>
+        <v>45794</v>
       </c>
       <c r="B138" t="n">
         <v>1100.605026750784</v>
@@ -3616,18 +2790,12 @@
         <v>787.301708681101</v>
       </c>
       <c r="E138" t="n">
-        <v>493.6411878235671</v>
-      </c>
-      <c r="F138" t="n">
-        <v>276.7091996659279</v>
-      </c>
-      <c r="G138" t="n">
-        <v>3742.908444309341</v>
+        <v>2972.558056819846</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45064</v>
+        <v>45795</v>
       </c>
       <c r="B139" t="n">
         <v>1122.955285200434</v>
@@ -3639,18 +2807,12 @@
         <v>775.1586717436267</v>
       </c>
       <c r="E139" t="n">
-        <v>517.6735706116247</v>
-      </c>
-      <c r="F139" t="n">
-        <v>293.303983960423</v>
-      </c>
-      <c r="G139" t="n">
-        <v>3662.99102589196</v>
+        <v>2852.013471319913</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45065</v>
+        <v>45796</v>
       </c>
       <c r="B140" t="n">
         <v>1179.003983557181</v>
@@ -3662,18 +2824,12 @@
         <v>792.6813683908335</v>
       </c>
       <c r="E140" t="n">
-        <v>572.3935726676489</v>
-      </c>
-      <c r="F140" t="n">
-        <v>278.2129188812585</v>
-      </c>
-      <c r="G140" t="n">
-        <v>3859.573509471222</v>
+        <v>3008.967017922314</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45066</v>
+        <v>45797</v>
       </c>
       <c r="B141" t="n">
         <v>1076.034125126004</v>
@@ -3685,18 +2841,12 @@
         <v>826.7264989822003</v>
       </c>
       <c r="E141" t="n">
-        <v>507.730094917906</v>
-      </c>
-      <c r="F141" t="n">
-        <v>264.0584482690396</v>
-      </c>
-      <c r="G141" t="n">
-        <v>3652.288749801039</v>
+        <v>2880.500206614093</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45067</v>
+        <v>45798</v>
       </c>
       <c r="B142" t="n">
         <v>1148.17938315156</v>
@@ -3708,18 +2858,12 @@
         <v>761.8532182381555</v>
       </c>
       <c r="E142" t="n">
-        <v>549.6902125012382</v>
-      </c>
-      <c r="F142" t="n">
-        <v>273.5013341233461</v>
-      </c>
-      <c r="G142" t="n">
-        <v>3724.00218011595</v>
+        <v>2900.810633491366</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45068</v>
+        <v>45799</v>
       </c>
       <c r="B143" t="n">
         <v>1201.37277343503</v>
@@ -3731,18 +2875,12 @@
         <v>742.6758669914591</v>
       </c>
       <c r="E143" t="n">
-        <v>548.1278572690381</v>
-      </c>
-      <c r="F143" t="n">
-        <v>288.7146770625674</v>
-      </c>
-      <c r="G143" t="n">
-        <v>3772.045203708769</v>
+        <v>2935.202669377164</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45069</v>
+        <v>45800</v>
       </c>
       <c r="B144" t="n">
         <v>1054.831309595595</v>
@@ -3754,18 +2892,12 @@
         <v>722.0324936768873</v>
       </c>
       <c r="E144" t="n">
-        <v>501.0136730629914</v>
-      </c>
-      <c r="F144" t="n">
-        <v>263.582819779785</v>
-      </c>
-      <c r="G144" t="n">
-        <v>3506.348173346551</v>
+        <v>2741.751680503774</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45070</v>
+        <v>45801</v>
       </c>
       <c r="B145" t="n">
         <v>1143.607974386199</v>
@@ -3777,18 +2909,12 @@
         <v>745.3481364499005</v>
       </c>
       <c r="E145" t="n">
-        <v>525.364987812529</v>
-      </c>
-      <c r="F145" t="n">
-        <v>264.2698350066671</v>
-      </c>
-      <c r="G145" t="n">
-        <v>3688.093621379375</v>
+        <v>2898.458798560179</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45071</v>
+        <v>45802</v>
       </c>
       <c r="B146" t="n">
         <v>1146.522599708754</v>
@@ -3800,18 +2926,12 @@
         <v>762.1069691427358</v>
       </c>
       <c r="E146" t="n">
-        <v>547.7900133753774</v>
-      </c>
-      <c r="F146" t="n">
-        <v>269.4572581149839</v>
-      </c>
-      <c r="G146" t="n">
-        <v>3699.713863653351</v>
+        <v>2882.466592162989</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45072</v>
+        <v>45803</v>
       </c>
       <c r="B147" t="n">
         <v>1171.753549911358</v>
@@ -3823,18 +2943,12 @@
         <v>820.8965350070613</v>
       </c>
       <c r="E147" t="n">
-        <v>513.0720612099533</v>
-      </c>
-      <c r="F147" t="n">
-        <v>261.0564013029066</v>
-      </c>
-      <c r="G147" t="n">
-        <v>3786.402100511602</v>
+        <v>3012.273637998742</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45073</v>
+        <v>45804</v>
       </c>
       <c r="B148" t="n">
         <v>1069.930989685343</v>
@@ -3846,18 +2960,12 @@
         <v>748.5194156438599</v>
       </c>
       <c r="E148" t="n">
-        <v>508.8917444540377</v>
-      </c>
-      <c r="F148" t="n">
-        <v>271.1715826512012</v>
-      </c>
-      <c r="G148" t="n">
-        <v>3594.320127208408</v>
+        <v>2814.25680010317</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45074</v>
+        <v>45805</v>
       </c>
       <c r="B149" t="n">
         <v>1064.854396136219</v>
@@ -3869,18 +2977,12 @@
         <v>769.2329045405575</v>
       </c>
       <c r="E149" t="n">
-        <v>502.9405628912558</v>
-      </c>
-      <c r="F149" t="n">
-        <v>285.3662862319077</v>
-      </c>
-      <c r="G149" t="n">
-        <v>3609.323448971251</v>
+        <v>2821.016599848088</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45075</v>
+        <v>45806</v>
       </c>
       <c r="B150" t="n">
         <v>1156.056004521863</v>
@@ -3892,18 +2994,12 @@
         <v>759.5296883587619</v>
       </c>
       <c r="E150" t="n">
-        <v>492.8414047184259</v>
-      </c>
-      <c r="F150" t="n">
-        <v>271.1067184512064</v>
-      </c>
-      <c r="G150" t="n">
-        <v>3648.004011013593</v>
+        <v>2884.055887843961</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45076</v>
+        <v>45807</v>
       </c>
       <c r="B151" t="n">
         <v>1143.873277515724</v>
@@ -3915,18 +3011,12 @@
         <v>796.1297954770906</v>
       </c>
       <c r="E151" t="n">
-        <v>503.3370461880149</v>
-      </c>
-      <c r="F151" t="n">
-        <v>266.1649783683516</v>
-      </c>
-      <c r="G151" t="n">
-        <v>3689.140807161273</v>
+        <v>2919.638782604906</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45077</v>
+        <v>45808</v>
       </c>
       <c r="B152" t="n">
         <v>1140.597647333487</v>
@@ -3938,18 +3028,12 @@
         <v>840.825157427858</v>
       </c>
       <c r="E152" t="n">
-        <v>495.832912334018</v>
-      </c>
-      <c r="F152" t="n">
-        <v>264.779779507485</v>
-      </c>
-      <c r="G152" t="n">
-        <v>3773.769314222182</v>
+        <v>3013.156622380679</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45078</v>
+        <v>45809</v>
       </c>
       <c r="B153" t="n">
         <v>1144.428649576434</v>
@@ -3961,18 +3045,12 @@
         <v>747.3441346477302</v>
       </c>
       <c r="E153" t="n">
-        <v>511.1585784705917</v>
-      </c>
-      <c r="F153" t="n">
-        <v>253.3551975804097</v>
-      </c>
-      <c r="G153" t="n">
-        <v>3677.351104019053</v>
+        <v>2912.837327968051</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45079</v>
+        <v>45810</v>
       </c>
       <c r="B154" t="n">
         <v>1092.122945265653</v>
@@ -3984,18 +3062,12 @@
         <v>741.3722685122284</v>
       </c>
       <c r="E154" t="n">
-        <v>493.987434767881</v>
-      </c>
-      <c r="F154" t="n">
-        <v>275.8546775171752</v>
-      </c>
-      <c r="G154" t="n">
-        <v>3559.146755873223</v>
+        <v>2789.304643588167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45080</v>
+        <v>45811</v>
       </c>
       <c r="B155" t="n">
         <v>1136.739955568919</v>
@@ -4007,18 +3079,12 @@
         <v>791.3460991728693</v>
       </c>
       <c r="E155" t="n">
-        <v>518.5612364374495</v>
-      </c>
-      <c r="F155" t="n">
-        <v>268.4532058157907</v>
-      </c>
-      <c r="G155" t="n">
-        <v>3717.549601337785</v>
+        <v>2930.535159084544</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45081</v>
+        <v>45812</v>
       </c>
       <c r="B156" t="n">
         <v>1138.76957443232</v>
@@ -4030,18 +3096,12 @@
         <v>782.3088354484223</v>
       </c>
       <c r="E156" t="n">
-        <v>481.3593509277242</v>
-      </c>
-      <c r="F156" t="n">
-        <v>263.4543261103435</v>
-      </c>
-      <c r="G156" t="n">
-        <v>3693.717289910824</v>
+        <v>2948.903612872756</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45082</v>
+        <v>45813</v>
       </c>
       <c r="B157" t="n">
         <v>1087.373098449528</v>
@@ -4053,18 +3113,12 @@
         <v>806.2489847906661</v>
       </c>
       <c r="E157" t="n">
-        <v>520.9787708636941</v>
-      </c>
-      <c r="F157" t="n">
-        <v>300.8970866349872</v>
-      </c>
-      <c r="G157" t="n">
-        <v>3640.43157481965</v>
+        <v>2818.555717320968</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45083</v>
+        <v>45814</v>
       </c>
       <c r="B158" t="n">
         <v>1215.340603992287</v>
@@ -4076,18 +3130,12 @@
         <v>777.6799697050552</v>
       </c>
       <c r="E158" t="n">
-        <v>527.6593275767038</v>
-      </c>
-      <c r="F158" t="n">
-        <v>272.3638375283372</v>
-      </c>
-      <c r="G158" t="n">
-        <v>3818.353709644849</v>
+        <v>3018.330544539808</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45084</v>
+        <v>45815</v>
       </c>
       <c r="B159" t="n">
         <v>1144.691680042545</v>
@@ -4099,18 +3147,12 @@
         <v>743.0276821589599</v>
       </c>
       <c r="E159" t="n">
-        <v>467.128068963249</v>
-      </c>
-      <c r="F159" t="n">
-        <v>255.5449031947641</v>
-      </c>
-      <c r="G159" t="n">
-        <v>3579.456579203503</v>
+        <v>2856.78360704549</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45085</v>
+        <v>45816</v>
       </c>
       <c r="B160" t="n">
         <v>1060.37042102143</v>
@@ -4122,18 +3164,12 @@
         <v>774.7819490048184</v>
       </c>
       <c r="E160" t="n">
-        <v>517.1335646500581</v>
-      </c>
-      <c r="F160" t="n">
-        <v>263.5368996792628</v>
-      </c>
-      <c r="G160" t="n">
-        <v>3624.832299906688</v>
+        <v>2844.161835577367</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45086</v>
+        <v>45817</v>
       </c>
       <c r="B161" t="n">
         <v>1151.686708097338</v>
@@ -4145,18 +3181,12 @@
         <v>785.0590766849302</v>
       </c>
       <c r="E161" t="n">
-        <v>534.7028985842176</v>
-      </c>
-      <c r="F161" t="n">
-        <v>280.7765524835186</v>
-      </c>
-      <c r="G161" t="n">
-        <v>3716.050762530555</v>
+        <v>2900.571311462819</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45087</v>
+        <v>45818</v>
       </c>
       <c r="B162" t="n">
         <v>1069.03671300903</v>
@@ -4168,18 +3198,12 @@
         <v>770.5694457972228</v>
       </c>
       <c r="E162" t="n">
-        <v>483.9724428140568</v>
-      </c>
-      <c r="F162" t="n">
-        <v>265.0841076908627</v>
-      </c>
-      <c r="G162" t="n">
-        <v>3501.587733801812</v>
+        <v>2752.531183296892</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45088</v>
+        <v>45819</v>
       </c>
       <c r="B163" t="n">
         <v>1156.025603260099</v>
@@ -4191,18 +3215,12 @@
         <v>761.8948409039116</v>
       </c>
       <c r="E163" t="n">
-        <v>540.209481056336</v>
-      </c>
-      <c r="F163" t="n">
-        <v>254.9224429370553</v>
-      </c>
-      <c r="G163" t="n">
-        <v>3640.790329426467</v>
+        <v>2845.658405433076</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45089</v>
+        <v>45820</v>
       </c>
       <c r="B164" t="n">
         <v>1173.491010217444</v>
@@ -4214,18 +3232,12 @@
         <v>784.6891278381045</v>
       </c>
       <c r="E164" t="n">
-        <v>516.8737854779607</v>
-      </c>
-      <c r="F164" t="n">
-        <v>275.8919141469628</v>
-      </c>
-      <c r="G164" t="n">
-        <v>3746.46732158233</v>
+        <v>2953.701621957406</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45090</v>
+        <v>45821</v>
       </c>
       <c r="B165" t="n">
         <v>1073.406732304868</v>
@@ -4237,18 +3249,12 @@
         <v>786.7416018345729</v>
       </c>
       <c r="E165" t="n">
-        <v>494.0502623572704</v>
-      </c>
-      <c r="F165" t="n">
-        <v>257.4617550248277</v>
-      </c>
-      <c r="G165" t="n">
-        <v>3604.642603398847</v>
+        <v>2853.130586016749</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45091</v>
+        <v>45822</v>
       </c>
       <c r="B166" t="n">
         <v>1161.479510555799</v>
@@ -4260,18 +3266,12 @@
         <v>788.4735771199023</v>
       </c>
       <c r="E166" t="n">
-        <v>506.6562577962692</v>
-      </c>
-      <c r="F166" t="n">
-        <v>283.8607443605189</v>
-      </c>
-      <c r="G166" t="n">
-        <v>3694.693939158759</v>
+        <v>2904.176937001971</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45092</v>
+        <v>45823</v>
       </c>
       <c r="B167" t="n">
         <v>1132.810328274174</v>
@@ -4283,18 +3283,12 @@
         <v>771.470241456138</v>
       </c>
       <c r="E167" t="n">
-        <v>516.6820751669878</v>
-      </c>
-      <c r="F167" t="n">
-        <v>276.6529445593151</v>
-      </c>
-      <c r="G167" t="n">
-        <v>3709.677346177007</v>
+        <v>2916.342326450704</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45093</v>
+        <v>45824</v>
       </c>
       <c r="B168" t="n">
         <v>1152.126075519646</v>
@@ -4306,18 +3300,12 @@
         <v>737.0973240101619</v>
       </c>
       <c r="E168" t="n">
-        <v>503.0390672372331</v>
-      </c>
-      <c r="F168" t="n">
-        <v>259.7353012711201</v>
-      </c>
-      <c r="G168" t="n">
-        <v>3572.968027115305</v>
+        <v>2810.193658606951</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45094</v>
+        <v>45825</v>
       </c>
       <c r="B169" t="n">
         <v>1204.706198405498</v>
@@ -4329,18 +3317,12 @@
         <v>752.5234068879698</v>
       </c>
       <c r="E169" t="n">
-        <v>513.2740802468446</v>
-      </c>
-      <c r="F169" t="n">
-        <v>277.7608814965957</v>
-      </c>
-      <c r="G169" t="n">
-        <v>3737.285234349806</v>
+        <v>2946.250272606366</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45095</v>
+        <v>45826</v>
       </c>
       <c r="B170" t="n">
         <v>1096.43281224795</v>
@@ -4352,18 +3334,12 @@
         <v>777.753040591384</v>
       </c>
       <c r="E170" t="n">
-        <v>486.0427194167885</v>
-      </c>
-      <c r="F170" t="n">
-        <v>262.6232706565716</v>
-      </c>
-      <c r="G170" t="n">
-        <v>3554.216250585466</v>
+        <v>2805.550260512106</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45096</v>
+        <v>45827</v>
       </c>
       <c r="B171" t="n">
         <v>1069.843758805187</v>
@@ -4375,18 +3351,12 @@
         <v>718.1138086029077</v>
       </c>
       <c r="E171" t="n">
-        <v>501.3108241502368</v>
-      </c>
-      <c r="F171" t="n">
-        <v>271.7149325708581</v>
-      </c>
-      <c r="G171" t="n">
-        <v>3511.01870931607</v>
+        <v>2737.992952594976</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45097</v>
+        <v>45828</v>
       </c>
       <c r="B172" t="n">
         <v>1061.876370062703</v>
@@ -4398,18 +3368,12 @@
         <v>755.4879799019859</v>
       </c>
       <c r="E172" t="n">
-        <v>472.8153446696908</v>
-      </c>
-      <c r="F172" t="n">
-        <v>264.8992809487097</v>
-      </c>
-      <c r="G172" t="n">
-        <v>3531.244232677201</v>
+        <v>2793.5296070588</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45098</v>
+        <v>45829</v>
       </c>
       <c r="B173" t="n">
         <v>1064.376774731086</v>
@@ -4421,18 +3385,12 @@
         <v>728.1057064223176</v>
       </c>
       <c r="E173" t="n">
-        <v>495.5529650070009</v>
-      </c>
-      <c r="F173" t="n">
-        <v>253.5751877466629</v>
-      </c>
-      <c r="G173" t="n">
-        <v>3480.665607952303</v>
+        <v>2731.53745519864</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45099</v>
+        <v>45830</v>
       </c>
       <c r="B174" t="n">
         <v>1100.121573101851</v>
@@ -4444,18 +3402,12 @@
         <v>742.1094660714821</v>
       </c>
       <c r="E174" t="n">
-        <v>480.5234572068749</v>
-      </c>
-      <c r="F174" t="n">
-        <v>253.8121791120241</v>
-      </c>
-      <c r="G174" t="n">
-        <v>3537.177937891269</v>
+        <v>2802.84230157237</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45100</v>
+        <v>45831</v>
       </c>
       <c r="B175" t="n">
         <v>1119.838300034684</v>
@@ -4467,18 +3419,12 @@
         <v>784.4379869952427</v>
       </c>
       <c r="E175" t="n">
-        <v>487.5454803652696</v>
-      </c>
-      <c r="F175" t="n">
-        <v>270.9602964711089</v>
-      </c>
-      <c r="G175" t="n">
-        <v>3679.942167273432</v>
+        <v>2921.436390437054</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45101</v>
+        <v>45832</v>
       </c>
       <c r="B176" t="n">
         <v>1115.414459658488</v>
@@ -4490,18 +3436,12 @@
         <v>744.5138945496409</v>
       </c>
       <c r="E176" t="n">
-        <v>522.4052208359677</v>
-      </c>
-      <c r="F176" t="n">
-        <v>260.5087527009289</v>
-      </c>
-      <c r="G176" t="n">
-        <v>3595.172034683539</v>
+        <v>2812.258061146642</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45102</v>
+        <v>45833</v>
       </c>
       <c r="B177" t="n">
         <v>1141.733980197059</v>
@@ -4513,18 +3453,12 @@
         <v>745.1580807616912</v>
       </c>
       <c r="E177" t="n">
-        <v>518.9919375861577</v>
-      </c>
-      <c r="F177" t="n">
-        <v>259.1876726752474</v>
-      </c>
-      <c r="G177" t="n">
-        <v>3675.472607918674</v>
+        <v>2897.292997657269</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45103</v>
+        <v>45834</v>
       </c>
       <c r="B178" t="n">
         <v>1099.815995306065</v>
@@ -4536,18 +3470,12 @@
         <v>693.7564607893079</v>
       </c>
       <c r="E178" t="n">
-        <v>503.6247687819422</v>
-      </c>
-      <c r="F178" t="n">
-        <v>251.8444312271346</v>
-      </c>
-      <c r="G178" t="n">
-        <v>3475.567702018487</v>
+        <v>2720.09850200941</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45104</v>
+        <v>45835</v>
       </c>
       <c r="B179" t="n">
         <v>1170.630378839586</v>
@@ -4559,18 +3487,12 @@
         <v>763.3516264684431</v>
       </c>
       <c r="E179" t="n">
-        <v>475.9703773460807</v>
-      </c>
-      <c r="F179" t="n">
-        <v>262.5737633868866</v>
-      </c>
-      <c r="G179" t="n">
-        <v>3671.444291026942</v>
+        <v>2932.900150293975</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45105</v>
+        <v>45836</v>
       </c>
       <c r="B180" t="n">
         <v>1083.505806261448</v>
@@ -4582,18 +3504,12 @@
         <v>762.1681385673538</v>
       </c>
       <c r="E180" t="n">
-        <v>490.7841040321779</v>
-      </c>
-      <c r="F180" t="n">
-        <v>280.1513891803185</v>
-      </c>
-      <c r="G180" t="n">
-        <v>3642.213681832436</v>
+        <v>2871.27818861994</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45106</v>
+        <v>45837</v>
       </c>
       <c r="B181" t="n">
         <v>1231.52978606606</v>
@@ -4605,18 +3521,12 @@
         <v>792.5908644201892</v>
       </c>
       <c r="E181" t="n">
-        <v>523.8295715362343</v>
-      </c>
-      <c r="F181" t="n">
-        <v>251.8618935583966</v>
-      </c>
-      <c r="G181" t="n">
-        <v>3682.616376371658</v>
+        <v>2906.924911277027</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45107</v>
+        <v>45838</v>
       </c>
       <c r="B182" t="n">
         <v>1125.585590688703</v>
@@ -4628,18 +3538,12 @@
         <v>723.1604396807231</v>
       </c>
       <c r="E182" t="n">
-        <v>494.8712715610517</v>
-      </c>
-      <c r="F182" t="n">
-        <v>259.5897663829234</v>
-      </c>
-      <c r="G182" t="n">
-        <v>3541.331595803815</v>
+        <v>2786.87055785984</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45108</v>
+        <v>45839</v>
       </c>
       <c r="B183" t="n">
         <v>1050.223966201899</v>
@@ -4651,18 +3555,12 @@
         <v>742.7706919361044</v>
       </c>
       <c r="E183" t="n">
-        <v>539.7963976023296</v>
-      </c>
-      <c r="F183" t="n">
-        <v>277.6682141189299</v>
-      </c>
-      <c r="G183" t="n">
-        <v>3594.930026784845</v>
+        <v>2777.465415063586</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45109</v>
+        <v>45840</v>
       </c>
       <c r="B184" t="n">
         <v>1038.316074785813</v>
@@ -4674,18 +3572,12 @@
         <v>739.4977655034397</v>
       </c>
       <c r="E184" t="n">
-        <v>500.3604132137789</v>
-      </c>
-      <c r="F184" t="n">
-        <v>258.5117673466945</v>
-      </c>
-      <c r="G184" t="n">
-        <v>3487.684372637683</v>
+        <v>2728.81219207721</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45110</v>
+        <v>45841</v>
       </c>
       <c r="B185" t="n">
         <v>1114.76292107329</v>
@@ -4697,18 +3589,12 @@
         <v>781.4605353086918</v>
       </c>
       <c r="E185" t="n">
-        <v>499.9427559851223</v>
-      </c>
-      <c r="F185" t="n">
-        <v>263.4958536232358</v>
-      </c>
-      <c r="G185" t="n">
-        <v>3640.195633281427</v>
+        <v>2876.757023673069</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45111</v>
+        <v>45842</v>
       </c>
       <c r="B186" t="n">
         <v>1078.245016710994</v>
@@ -4720,18 +3606,12 @@
         <v>726.0719895131931</v>
       </c>
       <c r="E186" t="n">
-        <v>483.792132058184</v>
-      </c>
-      <c r="F186" t="n">
-        <v>246.438909119807</v>
-      </c>
-      <c r="G186" t="n">
-        <v>3471.347666386474</v>
+        <v>2741.116625208483</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45112</v>
+        <v>45843</v>
       </c>
       <c r="B187" t="n">
         <v>1123.897801404152</v>
@@ -4743,18 +3623,12 @@
         <v>739.5804710927353</v>
       </c>
       <c r="E187" t="n">
-        <v>493.407975884738</v>
-      </c>
-      <c r="F187" t="n">
-        <v>262.0134239004597</v>
-      </c>
-      <c r="G187" t="n">
-        <v>3586.811265281053</v>
+        <v>2831.389865495856</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45113</v>
+        <v>45844</v>
       </c>
       <c r="B188" t="n">
         <v>1110.640553492098</v>
@@ -4766,18 +3640,12 @@
         <v>747.406089023975</v>
       </c>
       <c r="E188" t="n">
-        <v>487.882681080155</v>
-      </c>
-      <c r="F188" t="n">
-        <v>255.0125599106542</v>
-      </c>
-      <c r="G188" t="n">
-        <v>3556.761787251146</v>
+        <v>2813.866546260337</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45114</v>
+        <v>45845</v>
       </c>
       <c r="B189" t="n">
         <v>1082.11990644381</v>
@@ -4789,18 +3657,12 @@
         <v>738.8383204178925</v>
       </c>
       <c r="E189" t="n">
-        <v>503.6505464062225</v>
-      </c>
-      <c r="F189" t="n">
-        <v>268.0246250127516</v>
-      </c>
-      <c r="G189" t="n">
-        <v>3597.465753052773</v>
+        <v>2825.790581633799</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45115</v>
+        <v>45846</v>
       </c>
       <c r="B190" t="n">
         <v>1042.20663911486</v>
@@ -4812,18 +3674,12 @@
         <v>714.8582423402681</v>
       </c>
       <c r="E190" t="n">
-        <v>505.6384005772306</v>
-      </c>
-      <c r="F190" t="n">
-        <v>269.9469655770266</v>
-      </c>
-      <c r="G190" t="n">
-        <v>3495.884805267543</v>
+        <v>2720.299439113286</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45116</v>
+        <v>45847</v>
       </c>
       <c r="B191" t="n">
         <v>1007.591738053537</v>
@@ -4835,18 +3691,12 @@
         <v>733.1262153315101</v>
       </c>
       <c r="E191" t="n">
-        <v>472.0264720381242</v>
-      </c>
-      <c r="F191" t="n">
-        <v>280.3151034815647</v>
-      </c>
-      <c r="G191" t="n">
-        <v>3455.090088623363</v>
+        <v>2702.748513103674</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45117</v>
+        <v>45848</v>
       </c>
       <c r="B192" t="n">
         <v>1059.799434651391</v>
@@ -4858,18 +3708,12 @@
         <v>756.1045629110416</v>
       </c>
       <c r="E192" t="n">
-        <v>462.8358701218454</v>
-      </c>
-      <c r="F192" t="n">
-        <v>259.0049551952687</v>
-      </c>
-      <c r="G192" t="n">
-        <v>3473.949833503581</v>
+        <v>2752.109008186466</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45118</v>
+        <v>45849</v>
       </c>
       <c r="B193" t="n">
         <v>1123.740020024186</v>
@@ -4881,18 +3725,12 @@
         <v>692.5071709310687</v>
       </c>
       <c r="E193" t="n">
-        <v>445.794641754246</v>
-      </c>
-      <c r="F193" t="n">
-        <v>254.4714434028488</v>
-      </c>
-      <c r="G193" t="n">
-        <v>3455.019093398278</v>
+        <v>2754.753008241184</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45119</v>
+        <v>45850</v>
       </c>
       <c r="B194" t="n">
         <v>1090.423985912659</v>
@@ -4904,18 +3742,12 @@
         <v>726.2522204524352</v>
       </c>
       <c r="E194" t="n">
-        <v>495.4727680659537</v>
-      </c>
-      <c r="F194" t="n">
-        <v>257.8349795635984</v>
-      </c>
-      <c r="G194" t="n">
-        <v>3506.299464038046</v>
+        <v>2752.991716408494</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45120</v>
+        <v>45851</v>
       </c>
       <c r="B195" t="n">
         <v>1016.236402491844</v>
@@ -4927,18 +3759,12 @@
         <v>702.9024203169183</v>
       </c>
       <c r="E195" t="n">
-        <v>460.3322464791919</v>
-      </c>
-      <c r="F195" t="n">
-        <v>248.556230005301</v>
-      </c>
-      <c r="G195" t="n">
-        <v>3388.947698379527</v>
+        <v>2680.059221895034</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45121</v>
+        <v>45852</v>
       </c>
       <c r="B196" t="n">
         <v>1085.991757313202</v>
@@ -4950,18 +3776,12 @@
         <v>756.2736220116329</v>
       </c>
       <c r="E196" t="n">
-        <v>444.1026347503706</v>
-      </c>
-      <c r="F196" t="n">
-        <v>253.5616441137824</v>
-      </c>
-      <c r="G196" t="n">
-        <v>3474.155623504011</v>
+        <v>2776.491344639858</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45122</v>
+        <v>45853</v>
       </c>
       <c r="B197" t="n">
         <v>1095.413777442462</v>
@@ -4973,18 +3793,12 @@
         <v>676.7482078085909</v>
       </c>
       <c r="E197" t="n">
-        <v>486.4055562538865</v>
-      </c>
-      <c r="F197" t="n">
-        <v>251.1661232152024</v>
-      </c>
-      <c r="G197" t="n">
-        <v>3472.284363505061</v>
+        <v>2734.712684035972</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45123</v>
+        <v>45854</v>
       </c>
       <c r="B198" t="n">
         <v>1030.776561166882</v>
@@ -4996,18 +3810,12 @@
         <v>711.2609278124214</v>
       </c>
       <c r="E198" t="n">
-        <v>531.3738563206734</v>
-      </c>
-      <c r="F198" t="n">
-        <v>260.0158819901512</v>
-      </c>
-      <c r="G198" t="n">
-        <v>3559.896461734185</v>
+        <v>2768.506723423361</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45124</v>
+        <v>45855</v>
       </c>
       <c r="B199" t="n">
         <v>1081.484037249183</v>
@@ -5019,18 +3827,12 @@
         <v>734.1281871654505</v>
       </c>
       <c r="E199" t="n">
-        <v>483.1105132665098</v>
-      </c>
-      <c r="F199" t="n">
-        <v>266.3965830731119</v>
-      </c>
-      <c r="G199" t="n">
-        <v>3547.450938177966</v>
+        <v>2797.943841838345</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45125</v>
+        <v>45856</v>
       </c>
       <c r="B200" t="n">
         <v>1075.543886649499</v>
@@ -5042,18 +3844,12 @@
         <v>764.0278121093494</v>
       </c>
       <c r="E200" t="n">
-        <v>502.4259769908475</v>
-      </c>
-      <c r="F200" t="n">
-        <v>244.8038621917282</v>
-      </c>
-      <c r="G200" t="n">
-        <v>3519.62174590142</v>
+        <v>2772.391906718844</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45126</v>
+        <v>45857</v>
       </c>
       <c r="B201" t="n">
         <v>1014.328417588547</v>
@@ -5065,18 +3861,12 @@
         <v>719.6899461188049</v>
       </c>
       <c r="E201" t="n">
-        <v>482.2963547748631</v>
-      </c>
-      <c r="F201" t="n">
-        <v>263.9738075847924</v>
-      </c>
-      <c r="G201" t="n">
-        <v>3467.051470696483</v>
+        <v>2720.781308336827</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45127</v>
+        <v>45858</v>
       </c>
       <c r="B202" t="n">
         <v>1088.218086090065</v>
@@ -5088,18 +3878,12 @@
         <v>698.4174218574211</v>
       </c>
       <c r="E202" t="n">
-        <v>475.9954363509797</v>
-      </c>
-      <c r="F202" t="n">
-        <v>264.8364379230268</v>
-      </c>
-      <c r="G202" t="n">
-        <v>3456.229150367758</v>
+        <v>2715.397276093752</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45128</v>
+        <v>45859</v>
       </c>
       <c r="B203" t="n">
         <v>1097.228522224829</v>
@@ -5111,18 +3895,12 @@
         <v>764.1932203811184</v>
       </c>
       <c r="E203" t="n">
-        <v>502.3765700604341</v>
-      </c>
-      <c r="F203" t="n">
-        <v>252.8448309174161</v>
-      </c>
-      <c r="G203" t="n">
-        <v>3480.0924511243</v>
+        <v>2724.87105014645</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45129</v>
+        <v>45860</v>
       </c>
       <c r="B204" t="n">
         <v>1122.211713936311</v>
@@ -5134,18 +3912,12 @@
         <v>667.8095780919382</v>
       </c>
       <c r="E204" t="n">
-        <v>467.9991276364396</v>
-      </c>
-      <c r="F204" t="n">
-        <v>229.0931941290674</v>
-      </c>
-      <c r="G204" t="n">
-        <v>3393.258654172728</v>
+        <v>2696.166332407221</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45130</v>
+        <v>45861</v>
       </c>
       <c r="B205" t="n">
         <v>1119.628871334672</v>
@@ -5157,18 +3929,12 @@
         <v>640.937305069031</v>
       </c>
       <c r="E205" t="n">
-        <v>475.9170842815118</v>
-      </c>
-      <c r="F205" t="n">
-        <v>244.7512423037922</v>
-      </c>
-      <c r="G205" t="n">
-        <v>3351.616728267781</v>
+        <v>2630.948401682477</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45131</v>
+        <v>45862</v>
       </c>
       <c r="B206" t="n">
         <v>996.9451585291686</v>
@@ -5180,18 +3946,12 @@
         <v>724.0872974611021</v>
       </c>
       <c r="E206" t="n">
-        <v>484.7741366408398</v>
-      </c>
-      <c r="F206" t="n">
-        <v>264.4130845150997</v>
-      </c>
-      <c r="G206" t="n">
-        <v>3388.116555179094</v>
+        <v>2638.929334023154</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45132</v>
+        <v>45863</v>
       </c>
       <c r="B207" t="n">
         <v>1017.837951483847</v>
@@ -5203,18 +3963,12 @@
         <v>696.6562846671486</v>
       </c>
       <c r="E207" t="n">
-        <v>461.6955007856953</v>
-      </c>
-      <c r="F207" t="n">
-        <v>248.6367101515014</v>
-      </c>
-      <c r="G207" t="n">
-        <v>3358.630340187843</v>
+        <v>2648.298129250646</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45133</v>
+        <v>45864</v>
       </c>
       <c r="B208" t="n">
         <v>1089.392735694786</v>
@@ -5226,18 +3980,12 @@
         <v>687.5785532794878</v>
       </c>
       <c r="E208" t="n">
-        <v>493.4550912524206</v>
-      </c>
-      <c r="F208" t="n">
-        <v>241.7806812691636</v>
-      </c>
-      <c r="G208" t="n">
-        <v>3518.516605423831</v>
+        <v>2783.280832902246</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45134</v>
+        <v>45865</v>
       </c>
       <c r="B209" t="n">
         <v>1088.253701664048</v>
@@ -5249,18 +3997,12 @@
         <v>733.2147347312155</v>
       </c>
       <c r="E209" t="n">
-        <v>474.1480399865885</v>
-      </c>
-      <c r="F209" t="n">
-        <v>244.5299356100642</v>
-      </c>
-      <c r="G209" t="n">
-        <v>3491.400400403638</v>
+        <v>2772.722424806985</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45135</v>
+        <v>45866</v>
       </c>
       <c r="B210" t="n">
         <v>1087.252350318347</v>
@@ -5272,18 +4014,12 @@
         <v>716.2501196831544</v>
       </c>
       <c r="E210" t="n">
-        <v>460.3100951796764</v>
-      </c>
-      <c r="F210" t="n">
-        <v>256.3372029836221</v>
-      </c>
-      <c r="G210" t="n">
-        <v>3448.510954846715</v>
+        <v>2731.863656683417</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45136</v>
+        <v>45867</v>
       </c>
       <c r="B211" t="n">
         <v>1253.084696097686</v>
@@ -5295,18 +4031,12 @@
         <v>697.0408330277753</v>
       </c>
       <c r="E211" t="n">
-        <v>483.7135288001658</v>
-      </c>
-      <c r="F211" t="n">
-        <v>255.4783128750205</v>
-      </c>
-      <c r="G211" t="n">
-        <v>3675.260560909717</v>
+        <v>2936.06871923453</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45137</v>
+        <v>45868</v>
       </c>
       <c r="B212" t="n">
         <v>1087.953856183812</v>
@@ -5318,18 +4048,12 @@
         <v>660.9242102071045</v>
       </c>
       <c r="E212" t="n">
-        <v>450.8867936445513</v>
-      </c>
-      <c r="F212" t="n">
-        <v>244.081224502589</v>
-      </c>
-      <c r="G212" t="n">
-        <v>3290.723522315446</v>
+        <v>2595.755504168306</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45138</v>
+        <v>45869</v>
       </c>
       <c r="B213" t="n">
         <v>1115.162331241643</v>
@@ -5341,18 +4065,12 @@
         <v>734.7589548714323</v>
       </c>
       <c r="E213" t="n">
-        <v>476.2931383275713</v>
-      </c>
-      <c r="F213" t="n">
-        <v>245.087879561133</v>
-      </c>
-      <c r="G213" t="n">
-        <v>3517.850358836378</v>
+        <v>2796.469340947674</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45139</v>
+        <v>45870</v>
       </c>
       <c r="B214" t="n">
         <v>1105.072817463791</v>
@@ -5364,18 +4082,12 @@
         <v>729.3336802055546</v>
       </c>
       <c r="E214" t="n">
-        <v>474.5000798033237</v>
-      </c>
-      <c r="F214" t="n">
-        <v>244.4069723477203</v>
-      </c>
-      <c r="G214" t="n">
-        <v>3519.353622753553</v>
+        <v>2800.446570602508</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45140</v>
+        <v>45871</v>
       </c>
       <c r="B215" t="n">
         <v>1088.945381220712</v>
@@ -5387,18 +4099,12 @@
         <v>696.9053896013936</v>
       </c>
       <c r="E215" t="n">
-        <v>492.6587777389399</v>
-      </c>
-      <c r="F215" t="n">
-        <v>240.6669396599934</v>
-      </c>
-      <c r="G215" t="n">
-        <v>3392.728231436255</v>
+        <v>2659.402514037321</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45141</v>
+        <v>45872</v>
       </c>
       <c r="B216" t="n">
         <v>1039.630298666397</v>
@@ -5410,18 +4116,12 @@
         <v>764.4981864518437</v>
       </c>
       <c r="E216" t="n">
-        <v>486.7012876621494</v>
-      </c>
-      <c r="F216" t="n">
-        <v>265.2026378405923</v>
-      </c>
-      <c r="G216" t="n">
-        <v>3528.660610934631</v>
+        <v>2776.75668543189</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45142</v>
+        <v>45873</v>
       </c>
       <c r="B217" t="n">
         <v>1092.37545620847</v>
@@ -5433,18 +4133,12 @@
         <v>673.5355539272664</v>
       </c>
       <c r="E217" t="n">
-        <v>467.1238142913464</v>
-      </c>
-      <c r="F217" t="n">
-        <v>243.6245757737826</v>
-      </c>
-      <c r="G217" t="n">
-        <v>3421.478398268534</v>
+        <v>2710.730008203405</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45143</v>
+        <v>45874</v>
       </c>
       <c r="B218" t="n">
         <v>1014.834695419056</v>
@@ -5456,18 +4150,12 @@
         <v>655.3250903500809</v>
       </c>
       <c r="E218" t="n">
-        <v>481.6782174773878</v>
-      </c>
-      <c r="F218" t="n">
-        <v>260.2345981851807</v>
-      </c>
-      <c r="G218" t="n">
-        <v>3318.125319334328</v>
+        <v>2576.212503671759</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45144</v>
+        <v>45875</v>
       </c>
       <c r="B219" t="n">
         <v>1040.700143421982</v>
@@ -5479,18 +4167,12 @@
         <v>684.0388169583156</v>
       </c>
       <c r="E219" t="n">
-        <v>495.5244621797708</v>
-      </c>
-      <c r="F219" t="n">
-        <v>264.423821488998</v>
-      </c>
-      <c r="G219" t="n">
-        <v>3434.401392042701</v>
+        <v>2674.453108373933</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45145</v>
+        <v>45876</v>
       </c>
       <c r="B220" t="n">
         <v>1027.354595818113</v>
@@ -5502,18 +4184,12 @@
         <v>709.1122226812397</v>
       </c>
       <c r="E220" t="n">
-        <v>480.9165376789883</v>
-      </c>
-      <c r="F220" t="n">
-        <v>257.4993173912919</v>
-      </c>
-      <c r="G220" t="n">
-        <v>3487.944066031274</v>
+        <v>2749.528210960993</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45146</v>
+        <v>45877</v>
       </c>
       <c r="B221" t="n">
         <v>1054.815181740069</v>
@@ -5525,18 +4201,12 @@
         <v>708.9764031614271</v>
       </c>
       <c r="E221" t="n">
-        <v>469.4932826213113</v>
-      </c>
-      <c r="F221" t="n">
-        <v>241.8274200891012</v>
-      </c>
-      <c r="G221" t="n">
-        <v>3406.545635804857</v>
+        <v>2695.224933094445</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45147</v>
+        <v>45878</v>
       </c>
       <c r="B222" t="n">
         <v>1165.570522011183</v>
@@ -5548,18 +4218,12 @@
         <v>695.1010695303286</v>
       </c>
       <c r="E222" t="n">
-        <v>441.2084197770328</v>
-      </c>
-      <c r="F222" t="n">
-        <v>247.1256616165709</v>
-      </c>
-      <c r="G222" t="n">
-        <v>3493.361623530253</v>
+        <v>2805.02754213665</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45148</v>
+        <v>45879</v>
       </c>
       <c r="B223" t="n">
         <v>955.6082803740799</v>
@@ -5571,18 +4235,12 @@
         <v>707.2709483035025</v>
       </c>
       <c r="E223" t="n">
-        <v>446.9134375703098</v>
-      </c>
-      <c r="F223" t="n">
-        <v>243.1936956938553</v>
-      </c>
-      <c r="G223" t="n">
-        <v>3247.249986000479</v>
+        <v>2557.142852736314</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45149</v>
+        <v>45880</v>
       </c>
       <c r="B224" t="n">
         <v>1082.436728059142</v>
@@ -5594,18 +4252,12 @@
         <v>658.1829356845021</v>
       </c>
       <c r="E224" t="n">
-        <v>456.7632868975234</v>
-      </c>
-      <c r="F224" t="n">
-        <v>235.1640537905344</v>
-      </c>
-      <c r="G224" t="n">
-        <v>3323.095877291358</v>
+        <v>2631.1685366033</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45150</v>
+        <v>45881</v>
       </c>
       <c r="B225" t="n">
         <v>966.658735116861</v>
@@ -5617,18 +4269,12 @@
         <v>743.9311482394571</v>
       </c>
       <c r="E225" t="n">
-        <v>458.8206822512975</v>
-      </c>
-      <c r="F225" t="n">
-        <v>247.4345667776145</v>
-      </c>
-      <c r="G225" t="n">
-        <v>3362.260061499761</v>
+        <v>2656.004812470849</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45151</v>
+        <v>45882</v>
       </c>
       <c r="B226" t="n">
         <v>1022.88777098962</v>
@@ -5640,18 +4286,12 @@
         <v>691.3093747642658</v>
       </c>
       <c r="E226" t="n">
-        <v>461.5852571283542</v>
-      </c>
-      <c r="F226" t="n">
-        <v>232.4650006570557</v>
-      </c>
-      <c r="G226" t="n">
-        <v>3291.080319025175</v>
+        <v>2597.030061239766</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45152</v>
+        <v>45883</v>
       </c>
       <c r="B227" t="n">
         <v>1100.141143427015</v>
@@ -5663,18 +4303,12 @@
         <v>731.1282085642713</v>
       </c>
       <c r="E227" t="n">
-        <v>470.0232647858279</v>
-      </c>
-      <c r="F227" t="n">
-        <v>256.7678430789277</v>
-      </c>
-      <c r="G227" t="n">
-        <v>3484.992114550437</v>
+        <v>2758.201006685681</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45153</v>
+        <v>45884</v>
       </c>
       <c r="B228" t="n">
         <v>1048.136660007072</v>
@@ -5686,18 +4320,12 @@
         <v>704.5399053599043</v>
       </c>
       <c r="E228" t="n">
-        <v>476.4169092440445</v>
-      </c>
-      <c r="F228" t="n">
-        <v>240.6800497618802</v>
-      </c>
-      <c r="G228" t="n">
-        <v>3368.819019744842</v>
+        <v>2651.722060738917</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45154</v>
+        <v>45885</v>
       </c>
       <c r="B229" t="n">
         <v>990.284638414837</v>
@@ -5709,18 +4337,12 @@
         <v>710.588238833433</v>
       </c>
       <c r="E229" t="n">
-        <v>464.6175992466824</v>
-      </c>
-      <c r="F229" t="n">
-        <v>245.9577319456571</v>
-      </c>
-      <c r="G229" t="n">
-        <v>3342.273367160991</v>
+        <v>2631.698035968651</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45155</v>
+        <v>45886</v>
       </c>
       <c r="B230" t="n">
         <v>1007.676453526284</v>
@@ -5732,18 +4354,12 @@
         <v>712.9647458760888</v>
       </c>
       <c r="E230" t="n">
-        <v>475.6031630598458</v>
-      </c>
-      <c r="F230" t="n">
-        <v>247.6815228193025</v>
-      </c>
-      <c r="G230" t="n">
-        <v>3369.993326037053</v>
+        <v>2646.708640157904</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45156</v>
+        <v>45887</v>
       </c>
       <c r="B231" t="n">
         <v>1076.712196079138</v>
@@ -5755,18 +4371,12 @@
         <v>712.216508408377</v>
       </c>
       <c r="E231" t="n">
-        <v>466.7040625900016</v>
-      </c>
-      <c r="F231" t="n">
-        <v>241.1778182484402</v>
-      </c>
-      <c r="G231" t="n">
-        <v>3457.269249610109</v>
+        <v>2749.387368771667</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45157</v>
+        <v>45888</v>
       </c>
       <c r="B232" t="n">
         <v>1005.525913005495</v>
@@ -5778,18 +4388,12 @@
         <v>710.5869626527812</v>
       </c>
       <c r="E232" t="n">
-        <v>425.3670627747412</v>
-      </c>
-      <c r="F232" t="n">
-        <v>245.3124932104971</v>
-      </c>
-      <c r="G232" t="n">
-        <v>3277.579762662954</v>
+        <v>2606.900206677716</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45158</v>
+        <v>45889</v>
       </c>
       <c r="B233" t="n">
         <v>1052.200728394239</v>
@@ -5801,18 +4405,12 @@
         <v>732.0439867090374</v>
       </c>
       <c r="E233" t="n">
-        <v>447.8688103605849</v>
-      </c>
-      <c r="F233" t="n">
-        <v>236.7634042528613</v>
-      </c>
-      <c r="G233" t="n">
-        <v>3373.304244276525</v>
+        <v>2688.672029663078</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45159</v>
+        <v>45890</v>
       </c>
       <c r="B234" t="n">
         <v>1043.01190924199</v>
@@ -5824,18 +4422,12 @@
         <v>694.5893550481583</v>
       </c>
       <c r="E234" t="n">
-        <v>459.6705112891032</v>
-      </c>
-      <c r="F234" t="n">
-        <v>251.2266875528426</v>
-      </c>
-      <c r="G234" t="n">
-        <v>3323.03575922244</v>
+        <v>2612.138560380494</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45160</v>
+        <v>45891</v>
       </c>
       <c r="B235" t="n">
         <v>1007.531121340655</v>
@@ -5847,18 +4439,12 @@
         <v>711.2138252310006</v>
       </c>
       <c r="E235" t="n">
-        <v>439.6719431546562</v>
-      </c>
-      <c r="F235" t="n">
-        <v>226.8796252571873</v>
-      </c>
-      <c r="G235" t="n">
-        <v>3277.066807691277</v>
+        <v>2610.515239279433</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45161</v>
+        <v>45892</v>
       </c>
       <c r="B236" t="n">
         <v>1146.708800329562</v>
@@ -5870,18 +4456,12 @@
         <v>691.4121043338994</v>
       </c>
       <c r="E236" t="n">
-        <v>473.5444233786324</v>
-      </c>
-      <c r="F236" t="n">
-        <v>244.8205573059865</v>
-      </c>
-      <c r="G236" t="n">
-        <v>3494.458061793468</v>
+        <v>2776.093081108849</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45162</v>
+        <v>45893</v>
       </c>
       <c r="B237" t="n">
         <v>1070.630965608029</v>
@@ -5893,18 +4473,12 @@
         <v>737.5635904407934</v>
       </c>
       <c r="E237" t="n">
-        <v>496.4453814878048</v>
-      </c>
-      <c r="F237" t="n">
-        <v>265.070831037789</v>
-      </c>
-      <c r="G237" t="n">
-        <v>3514.701421394736</v>
+        <v>2753.185208869142</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45163</v>
+        <v>45894</v>
       </c>
       <c r="B238" t="n">
         <v>937.1245842888582</v>
@@ -5916,18 +4490,12 @@
         <v>665.5303807471822</v>
       </c>
       <c r="E238" t="n">
-        <v>482.68096055736</v>
-      </c>
-      <c r="F238" t="n">
-        <v>234.141125534028</v>
-      </c>
-      <c r="G238" t="n">
-        <v>3183.4082674866</v>
+        <v>2466.586181395212</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45164</v>
+        <v>45895</v>
       </c>
       <c r="B239" t="n">
         <v>1047.174721106377</v>
@@ -5939,18 +4507,12 @@
         <v>747.6477475289865</v>
       </c>
       <c r="E239" t="n">
-        <v>461.9367194814567</v>
-      </c>
-      <c r="F239" t="n">
-        <v>235.1366233164783</v>
-      </c>
-      <c r="G239" t="n">
-        <v>3437.979124642487</v>
+        <v>2740.905781844552</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45165</v>
+        <v>45896</v>
       </c>
       <c r="B240" t="n">
         <v>1004.256871616989</v>
@@ -5962,18 +4524,12 @@
         <v>693.4757941337373</v>
       </c>
       <c r="E240" t="n">
-        <v>490.3005800925362</v>
-      </c>
-      <c r="F240" t="n">
-        <v>249.7383754769245</v>
-      </c>
-      <c r="G240" t="n">
-        <v>3398.499778718411</v>
+        <v>2658.46082314895</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45166</v>
+        <v>45897</v>
       </c>
       <c r="B241" t="n">
         <v>1079.48624686742</v>
@@ -5985,18 +4541,12 @@
         <v>648.3032635048016</v>
       </c>
       <c r="E241" t="n">
-        <v>458.649507545566</v>
-      </c>
-      <c r="F241" t="n">
-        <v>243.0836845994744</v>
-      </c>
-      <c r="G241" t="n">
-        <v>3359.60038743504</v>
+        <v>2657.867195289999</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45167</v>
+        <v>45898</v>
       </c>
       <c r="B242" t="n">
         <v>996.7814151365014</v>
@@ -6008,18 +4558,12 @@
         <v>699.6751972484536</v>
       </c>
       <c r="E242" t="n">
-        <v>453.7887811257391</v>
-      </c>
-      <c r="F242" t="n">
-        <v>244.1666695169368</v>
-      </c>
-      <c r="G242" t="n">
-        <v>3374.287998690113</v>
+        <v>2676.332548047437</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45168</v>
+        <v>45899</v>
       </c>
       <c r="B243" t="n">
         <v>1030.238272191349</v>
@@ -6031,18 +4575,12 @@
         <v>664.7287403012444</v>
       </c>
       <c r="E243" t="n">
-        <v>444.4948584651831</v>
-      </c>
-      <c r="F243" t="n">
-        <v>244.4863760009337</v>
-      </c>
-      <c r="G243" t="n">
-        <v>3260.700581625457</v>
+        <v>2571.71934715934</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45169</v>
+        <v>45900</v>
       </c>
       <c r="B244" t="n">
         <v>1060.81714697404</v>
@@ -6054,18 +4592,12 @@
         <v>708.4149515831682</v>
       </c>
       <c r="E244" t="n">
-        <v>454.8192146385612</v>
-      </c>
-      <c r="F244" t="n">
-        <v>246.8426927544773</v>
-      </c>
-      <c r="G244" t="n">
-        <v>3331.443758935208</v>
+        <v>2629.78185154217</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45170</v>
+        <v>45901</v>
       </c>
       <c r="B245" t="n">
         <v>1078.473546903515</v>
@@ -6077,18 +4609,12 @@
         <v>661.2874703869525</v>
       </c>
       <c r="E245" t="n">
-        <v>448.1395255458742</v>
-      </c>
-      <c r="F245" t="n">
-        <v>250.7981084131514</v>
-      </c>
-      <c r="G245" t="n">
-        <v>3279.245825739681</v>
+        <v>2580.308191780655</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45171</v>
+        <v>45902</v>
       </c>
       <c r="B246" t="n">
         <v>974.8145477762791</v>
@@ -6100,18 +4626,12 @@
         <v>679.1907900550423</v>
       </c>
       <c r="E246" t="n">
-        <v>460.8591507046411</v>
-      </c>
-      <c r="F246" t="n">
-        <v>244.9499752655628</v>
-      </c>
-      <c r="G246" t="n">
-        <v>3320.601185541975</v>
+        <v>2614.792059571771</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45172</v>
+        <v>45903</v>
       </c>
       <c r="B247" t="n">
         <v>1017.773717810599</v>
@@ -6123,18 +4643,12 @@
         <v>632.6181480049559</v>
       </c>
       <c r="E247" t="n">
-        <v>455.7728062625515</v>
-      </c>
-      <c r="F247" t="n">
-        <v>237.814460000599</v>
-      </c>
-      <c r="G247" t="n">
-        <v>3275.030153796044</v>
+        <v>2581.442887532894</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45173</v>
+        <v>45904</v>
       </c>
       <c r="B248" t="n">
         <v>1010.447002179003</v>
@@ -6146,18 +4660,12 @@
         <v>672.5050438218705</v>
       </c>
       <c r="E248" t="n">
-        <v>456.3891318800756</v>
-      </c>
-      <c r="F248" t="n">
-        <v>246.903503747445</v>
-      </c>
-      <c r="G248" t="n">
-        <v>3287.821409199516</v>
+        <v>2584.528773571996</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45174</v>
+        <v>45905</v>
       </c>
       <c r="B249" t="n">
         <v>1001.249609297823</v>
@@ -6169,18 +4677,12 @@
         <v>614.3089190294149</v>
       </c>
       <c r="E249" t="n">
-        <v>459.0360836684721</v>
-      </c>
-      <c r="F249" t="n">
-        <v>259.3356419011012</v>
-      </c>
-      <c r="G249" t="n">
-        <v>3247.686816620594</v>
+        <v>2529.315091051021</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45175</v>
+        <v>45906</v>
       </c>
       <c r="B250" t="n">
         <v>1121.937131781586</v>
@@ -6192,18 +4694,12 @@
         <v>634.8121358659721</v>
       </c>
       <c r="E250" t="n">
-        <v>475.9599069893367</v>
-      </c>
-      <c r="F250" t="n">
-        <v>240.6025371886143</v>
-      </c>
-      <c r="G250" t="n">
-        <v>3342.617398925759</v>
+        <v>2626.054954747808</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45176</v>
+        <v>45907</v>
       </c>
       <c r="B251" t="n">
         <v>1053.688622538626</v>
@@ -6215,18 +4711,12 @@
         <v>718.4812189817757</v>
       </c>
       <c r="E251" t="n">
-        <v>479.3150194032353</v>
-      </c>
-      <c r="F251" t="n">
-        <v>232.4241162917328</v>
-      </c>
-      <c r="G251" t="n">
-        <v>3488.959548246369</v>
+        <v>2777.2204125514</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45177</v>
+        <v>45908</v>
       </c>
       <c r="B252" t="n">
         <v>970.1974396773085</v>
@@ -6238,18 +4728,12 @@
         <v>708.8971773121602</v>
       </c>
       <c r="E252" t="n">
-        <v>429.4884133198422</v>
-      </c>
-      <c r="F252" t="n">
-        <v>248.1679755036661</v>
-      </c>
-      <c r="G252" t="n">
-        <v>3260.532906974965</v>
+        <v>2582.876518151457</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45178</v>
+        <v>45909</v>
       </c>
       <c r="B253" t="n">
         <v>1078.964025133429</v>
@@ -6261,18 +4745,12 @@
         <v>698.8691771741725</v>
       </c>
       <c r="E253" t="n">
-        <v>406.9368661316544</v>
-      </c>
-      <c r="F253" t="n">
-        <v>233.5540605297676</v>
-      </c>
-      <c r="G253" t="n">
-        <v>3331.953065491115</v>
+        <v>2691.462138829693</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45179</v>
+        <v>45910</v>
       </c>
       <c r="B254" t="n">
         <v>1139.035416746834</v>
@@ -6284,18 +4762,12 @@
         <v>659.9549090586041</v>
       </c>
       <c r="E254" t="n">
-        <v>472.6529318891267</v>
-      </c>
-      <c r="F254" t="n">
-        <v>219.5241191080127</v>
-      </c>
-      <c r="G254" t="n">
-        <v>3435.24366895017</v>
+        <v>2743.066617953031</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45180</v>
+        <v>45911</v>
       </c>
       <c r="B255" t="n">
         <v>1084.435128398014</v>
@@ -6307,18 +4779,12 @@
         <v>685.8191159785783</v>
       </c>
       <c r="E255" t="n">
-        <v>429.0690837777321</v>
-      </c>
-      <c r="F255" t="n">
-        <v>245.2934982233688</v>
-      </c>
-      <c r="G255" t="n">
-        <v>3373.250200783329</v>
+        <v>2698.887618782228</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45181</v>
+        <v>45912</v>
       </c>
       <c r="B256" t="n">
         <v>956.7553873632572</v>
@@ -6330,18 +4796,12 @@
         <v>684.6672560474834</v>
       </c>
       <c r="E256" t="n">
-        <v>451.6609718312778</v>
-      </c>
-      <c r="F256" t="n">
-        <v>233.6575924557801</v>
-      </c>
-      <c r="G256" t="n">
-        <v>3232.151215934056</v>
+        <v>2546.832651646998</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45182</v>
+        <v>45913</v>
       </c>
       <c r="B257" t="n">
         <v>1008.45213835547</v>
@@ -6353,18 +4813,12 @@
         <v>646.3330954451695</v>
       </c>
       <c r="E257" t="n">
-        <v>428.7965858228429</v>
-      </c>
-      <c r="F257" t="n">
-        <v>235.7570941589993</v>
-      </c>
-      <c r="G257" t="n">
-        <v>3189.196222999243</v>
+        <v>2524.6425430174</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45183</v>
+        <v>45914</v>
       </c>
       <c r="B258" t="n">
         <v>1095.977457796286</v>
@@ -6376,18 +4830,12 @@
         <v>731.9772892886511</v>
       </c>
       <c r="E258" t="n">
-        <v>424.6108803120469</v>
-      </c>
-      <c r="F258" t="n">
-        <v>239.5072714042859</v>
-      </c>
-      <c r="G258" t="n">
-        <v>3421.034899135903</v>
+        <v>2756.916747419571</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45184</v>
+        <v>45915</v>
       </c>
       <c r="B259" t="n">
         <v>997.2447450203314</v>
@@ -6399,18 +4847,12 @@
         <v>717.7386025982374</v>
       </c>
       <c r="E259" t="n">
-        <v>469.9544021444277</v>
-      </c>
-      <c r="F259" t="n">
-        <v>242.5760806724875</v>
-      </c>
-      <c r="G259" t="n">
-        <v>3402.921859437535</v>
+        <v>2690.39137662062</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45185</v>
+        <v>45916</v>
       </c>
       <c r="B260" t="n">
         <v>1054.843916550897</v>
@@ -6422,18 +4864,12 @@
         <v>683.1251968328769</v>
       </c>
       <c r="E260" t="n">
-        <v>470.7568009467747</v>
-      </c>
-      <c r="F260" t="n">
-        <v>247.8007872947849</v>
-      </c>
-      <c r="G260" t="n">
-        <v>3416.15025124149</v>
+        <v>2697.59266299993</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45186</v>
+        <v>45917</v>
       </c>
       <c r="B261" t="n">
         <v>1071.43792436906</v>
@@ -6445,18 +4881,12 @@
         <v>691.6439316744477</v>
       </c>
       <c r="E261" t="n">
-        <v>444.8166738319478</v>
-      </c>
-      <c r="F261" t="n">
-        <v>233.7180480170151</v>
-      </c>
-      <c r="G261" t="n">
-        <v>3412.752812753028</v>
+        <v>2734.218090904065</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45187</v>
+        <v>45918</v>
       </c>
       <c r="B262" t="n">
         <v>986.4416567581897</v>
@@ -6468,18 +4898,12 @@
         <v>687.7670007295075</v>
       </c>
       <c r="E262" t="n">
-        <v>404.0711263648901</v>
-      </c>
-      <c r="F262" t="n">
-        <v>239.0958066856686</v>
-      </c>
-      <c r="G262" t="n">
-        <v>3195.801673426502</v>
+        <v>2552.634740375944</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45188</v>
+        <v>45919</v>
       </c>
       <c r="B263" t="n">
         <v>1029.922677133673</v>
@@ -6491,18 +4915,12 @@
         <v>618.7500439945727</v>
       </c>
       <c r="E263" t="n">
-        <v>438.0096934091129</v>
-      </c>
-      <c r="F263" t="n">
-        <v>234.7352915524248</v>
-      </c>
-      <c r="G263" t="n">
-        <v>3185.044936942219</v>
+        <v>2512.299951980681</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45189</v>
+        <v>45920</v>
       </c>
       <c r="B264" t="n">
         <v>870.9752638319973</v>
@@ -6514,18 +4932,12 @@
         <v>674.4375524504101</v>
       </c>
       <c r="E264" t="n">
-        <v>462.2952876872723</v>
-      </c>
-      <c r="F264" t="n">
-        <v>247.1253597446924</v>
-      </c>
-      <c r="G264" t="n">
-        <v>3137.130417961947</v>
+        <v>2427.709770529982</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45190</v>
+        <v>45921</v>
       </c>
       <c r="B265" t="n">
         <v>981.9879627352872</v>
@@ -6537,18 +4949,12 @@
         <v>663.2342463019349</v>
       </c>
       <c r="E265" t="n">
-        <v>423.7281311755116</v>
-      </c>
-      <c r="F265" t="n">
-        <v>242.0179569180821</v>
-      </c>
-      <c r="G265" t="n">
-        <v>3211.661965737493</v>
+        <v>2545.9158776439</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45191</v>
+        <v>45922</v>
       </c>
       <c r="B266" t="n">
         <v>1020.776777433959</v>
@@ -6560,18 +4966,12 @@
         <v>658.2114593538355</v>
       </c>
       <c r="E266" t="n">
-        <v>456.4504183324134</v>
-      </c>
-      <c r="F266" t="n">
-        <v>229.7716918135188</v>
-      </c>
-      <c r="G266" t="n">
-        <v>3311.379833418854</v>
+        <v>2625.157723272922</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45192</v>
+        <v>45923</v>
       </c>
       <c r="B267" t="n">
         <v>971.2430818785234</v>
@@ -6583,18 +4983,12 @@
         <v>668.2294873775481</v>
       </c>
       <c r="E267" t="n">
-        <v>453.4696481450013</v>
-      </c>
-      <c r="F267" t="n">
-        <v>249.6832341716036</v>
-      </c>
-      <c r="G267" t="n">
-        <v>3172.456967353349</v>
+        <v>2469.304085036744</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45193</v>
+        <v>45924</v>
       </c>
       <c r="B268" t="n">
         <v>1115.509158797236</v>
@@ -6606,18 +5000,12 @@
         <v>744.9881323197458</v>
       </c>
       <c r="E268" t="n">
-        <v>473.0400806642582</v>
-      </c>
-      <c r="F268" t="n">
-        <v>235.4220923354163</v>
-      </c>
-      <c r="G268" t="n">
-        <v>3542.203267655329</v>
+        <v>2833.741094655654</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45194</v>
+        <v>45925</v>
       </c>
       <c r="B269" t="n">
         <v>962.667246175227</v>
@@ -6629,18 +5017,12 @@
         <v>702.0884609552625</v>
       </c>
       <c r="E269" t="n">
-        <v>459.5701794931127</v>
-      </c>
-      <c r="F269" t="n">
-        <v>247.5224589467744</v>
-      </c>
-      <c r="G269" t="n">
-        <v>3262.434206303346</v>
+        <v>2555.341567863459</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45195</v>
+        <v>45926</v>
       </c>
       <c r="B270" t="n">
         <v>1012.487244555081</v>
@@ -6652,18 +5034,12 @@
         <v>665.2548173174298</v>
       </c>
       <c r="E270" t="n">
-        <v>434.059890470084</v>
-      </c>
-      <c r="F270" t="n">
-        <v>240.5767559590079</v>
-      </c>
-      <c r="G270" t="n">
-        <v>3237.343765071158</v>
+        <v>2562.707118642066</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45196</v>
+        <v>45927</v>
       </c>
       <c r="B271" t="n">
         <v>1041.371138688888</v>
@@ -6675,18 +5051,12 @@
         <v>697.6399720072493</v>
       </c>
       <c r="E271" t="n">
-        <v>480.7290711638479</v>
-      </c>
-      <c r="F271" t="n">
-        <v>259.9715658492526</v>
-      </c>
-      <c r="G271" t="n">
-        <v>3344.331974427386</v>
+        <v>2603.631337414286</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45197</v>
+        <v>45928</v>
       </c>
       <c r="B272" t="n">
         <v>1107.271948366767</v>
@@ -6698,18 +5068,12 @@
         <v>720.6755889549379</v>
       </c>
       <c r="E272" t="n">
-        <v>455.9802810003387</v>
-      </c>
-      <c r="F272" t="n">
-        <v>236.9050250590075</v>
-      </c>
-      <c r="G272" t="n">
-        <v>3366.532398473865</v>
+        <v>2673.647092414519</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45198</v>
+        <v>45929</v>
       </c>
       <c r="B273" t="n">
         <v>963.8189208825247</v>
@@ -6721,18 +5085,12 @@
         <v>715.0760613722737</v>
       </c>
       <c r="E273" t="n">
-        <v>458.1063267236274</v>
-      </c>
-      <c r="F273" t="n">
-        <v>235.8898703994801</v>
-      </c>
-      <c r="G273" t="n">
-        <v>3303.589517577832</v>
+        <v>2609.593320454725</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45199</v>
+        <v>45930</v>
       </c>
       <c r="B274" t="n">
         <v>1094.203559539012</v>
@@ -6744,18 +5102,12 @@
         <v>687.6150714750087</v>
       </c>
       <c r="E274" t="n">
-        <v>437.3142967385426</v>
-      </c>
-      <c r="F274" t="n">
-        <v>237.1463080012298</v>
-      </c>
-      <c r="G274" t="n">
-        <v>3370.268607940242</v>
+        <v>2695.80800320047</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45200</v>
+        <v>45931</v>
       </c>
       <c r="B275" t="n">
         <v>1037.019987185505</v>
@@ -6767,18 +5119,12 @@
         <v>660.5979201532015</v>
       </c>
       <c r="E275" t="n">
-        <v>444.4974806453005</v>
-      </c>
-      <c r="F275" t="n">
-        <v>235.0696170630926</v>
-      </c>
-      <c r="G275" t="n">
-        <v>3231.19523508363</v>
+        <v>2551.628137375236</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45201</v>
+        <v>45932</v>
       </c>
       <c r="B276" t="n">
         <v>987.9254934739835</v>
@@ -6790,18 +5136,12 @@
         <v>700.6662689528321</v>
       </c>
       <c r="E276" t="n">
-        <v>439.7709430252975</v>
-      </c>
-      <c r="F276" t="n">
-        <v>245.6766985272264</v>
-      </c>
-      <c r="G276" t="n">
-        <v>3223.229543265298</v>
+        <v>2537.781901712774</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45202</v>
+        <v>45933</v>
       </c>
       <c r="B277" t="n">
         <v>1060.628323515175</v>
@@ -6813,18 +5153,12 @@
         <v>696.3334478660111</v>
       </c>
       <c r="E277" t="n">
-        <v>453.6836835089371</v>
-      </c>
-      <c r="F277" t="n">
-        <v>222.95989222693</v>
-      </c>
-      <c r="G277" t="n">
-        <v>3328.755311338574</v>
+        <v>2652.111735602707</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45203</v>
+        <v>45934</v>
       </c>
       <c r="B278" t="n">
         <v>1048.027983654705</v>
@@ -6836,18 +5170,12 @@
         <v>719.5431617742381</v>
       </c>
       <c r="E278" t="n">
-        <v>493.8184853306834</v>
-      </c>
-      <c r="F278" t="n">
-        <v>232.6600241168111</v>
-      </c>
-      <c r="G278" t="n">
-        <v>3468.47331335431</v>
+        <v>2741.994803906815</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45204</v>
+        <v>45935</v>
       </c>
       <c r="B279" t="n">
         <v>1008.645614026504</v>
@@ -6859,18 +5187,12 @@
         <v>703.9196361466913</v>
       </c>
       <c r="E279" t="n">
-        <v>430.7165239098194</v>
-      </c>
-      <c r="F279" t="n">
-        <v>226.2749147520787</v>
-      </c>
-      <c r="G279" t="n">
-        <v>3263.262762490754</v>
+        <v>2606.271323828856</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45205</v>
+        <v>45936</v>
       </c>
       <c r="B280" t="n">
         <v>1042.757606938686</v>
@@ -6882,18 +5204,12 @@
         <v>712.0234875451399</v>
       </c>
       <c r="E280" t="n">
-        <v>426.838121872653</v>
-      </c>
-      <c r="F280" t="n">
-        <v>246.140388644838</v>
-      </c>
-      <c r="G280" t="n">
-        <v>3275.523649721808</v>
+        <v>2602.545139204317</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45206</v>
+        <v>45937</v>
       </c>
       <c r="B281" t="n">
         <v>1020.642420542194</v>
@@ -6905,18 +5221,12 @@
         <v>669.613903864253</v>
       </c>
       <c r="E281" t="n">
-        <v>484.4480370904103</v>
-      </c>
-      <c r="F281" t="n">
-        <v>259.5825575119167</v>
-      </c>
-      <c r="G281" t="n">
-        <v>3330.547918807781</v>
+        <v>2586.517324205454</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45207</v>
+        <v>45938</v>
       </c>
       <c r="B282" t="n">
         <v>1046.254076573167</v>
@@ -6928,18 +5238,12 @@
         <v>725.6866507869821</v>
       </c>
       <c r="E282" t="n">
-        <v>456.6134752599028</v>
-      </c>
-      <c r="F282" t="n">
-        <v>238.7324972027365</v>
-      </c>
-      <c r="G282" t="n">
-        <v>3365.465732138682</v>
+        <v>2670.119759676043</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45208</v>
+        <v>45939</v>
       </c>
       <c r="B283" t="n">
         <v>1074.384312784259</v>
@@ -6951,18 +5255,12 @@
         <v>683.0431744564289</v>
       </c>
       <c r="E283" t="n">
-        <v>443.3339742957273</v>
-      </c>
-      <c r="F283" t="n">
-        <v>236.850736009314</v>
-      </c>
-      <c r="G283" t="n">
-        <v>3242.097386353058</v>
+        <v>2561.912676048016</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45209</v>
+        <v>45940</v>
       </c>
       <c r="B284" t="n">
         <v>1121.307591298532</v>
@@ -6974,18 +5272,12 @@
         <v>750.7983129597321</v>
       </c>
       <c r="E284" t="n">
-        <v>484.4806252404006</v>
-      </c>
-      <c r="F284" t="n">
-        <v>243.4499342534248</v>
-      </c>
-      <c r="G284" t="n">
-        <v>3515.400828614242</v>
+        <v>2787.470269120417</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45210</v>
+        <v>45941</v>
       </c>
       <c r="B285" t="n">
         <v>980.874280819259</v>
@@ -6997,18 +5289,12 @@
         <v>666.1596080618799</v>
       </c>
       <c r="E285" t="n">
-        <v>443.3096723156913</v>
-      </c>
-      <c r="F285" t="n">
-        <v>250.3527614097713</v>
-      </c>
-      <c r="G285" t="n">
-        <v>3235.458414088661</v>
+        <v>2541.795980363199</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45211</v>
+        <v>45942</v>
       </c>
       <c r="B286" t="n">
         <v>1150.204287057604</v>
@@ -7020,18 +5306,12 @@
         <v>744.741562885645</v>
       </c>
       <c r="E286" t="n">
-        <v>500.0153978894195</v>
-      </c>
-      <c r="F286" t="n">
-        <v>235.2385321119944</v>
-      </c>
-      <c r="G286" t="n">
-        <v>3579.510557902793</v>
+        <v>2844.256627901379</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45212</v>
+        <v>45943</v>
       </c>
       <c r="B287" t="n">
         <v>946.7649629967141</v>
@@ -7043,18 +5323,12 @@
         <v>701.6219575351585</v>
       </c>
       <c r="E287" t="n">
-        <v>472.9684543694369</v>
-      </c>
-      <c r="F287" t="n">
-        <v>244.3044058588594</v>
-      </c>
-      <c r="G287" t="n">
-        <v>3341.290003235925</v>
+        <v>2624.017143007629</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45213</v>
+        <v>45944</v>
       </c>
       <c r="B288" t="n">
         <v>1037.625911097655</v>
@@ -7066,18 +5340,12 @@
         <v>674.6262918983496</v>
       </c>
       <c r="E288" t="n">
-        <v>447.1904673666946</v>
-      </c>
-      <c r="F288" t="n">
-        <v>249.2140562043806</v>
-      </c>
-      <c r="G288" t="n">
-        <v>3365.054051538303</v>
+        <v>2668.649527967228</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45214</v>
+        <v>45945</v>
       </c>
       <c r="B289" t="n">
         <v>1075.505814806987</v>
@@ -7089,18 +5357,12 @@
         <v>674.9340974124964</v>
       </c>
       <c r="E289" t="n">
-        <v>500.3755557996629</v>
-      </c>
-      <c r="F289" t="n">
-        <v>249.9164881759163</v>
-      </c>
-      <c r="G289" t="n">
-        <v>3405.698953639774</v>
+        <v>2655.406909664195</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45215</v>
+        <v>45946</v>
       </c>
       <c r="B290" t="n">
         <v>1061.043201201601</v>
@@ -7112,18 +5374,12 @@
         <v>676.8495624453174</v>
       </c>
       <c r="E290" t="n">
-        <v>445.5681009104047</v>
-      </c>
-      <c r="F290" t="n">
-        <v>241.4513478199978</v>
-      </c>
-      <c r="G290" t="n">
-        <v>3295.550382399693</v>
+        <v>2608.530933669291</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45216</v>
+        <v>45947</v>
       </c>
       <c r="B291" t="n">
         <v>1016.791030243485</v>
@@ -7135,18 +5391,12 @@
         <v>713.9860121469615</v>
       </c>
       <c r="E291" t="n">
-        <v>476.5109111486881</v>
-      </c>
-      <c r="F291" t="n">
-        <v>252.7967532874431</v>
-      </c>
-      <c r="G291" t="n">
-        <v>3474.139006968532</v>
+        <v>2744.831342532401</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45217</v>
+        <v>45948</v>
       </c>
       <c r="B292" t="n">
         <v>1038.480909094906</v>
@@ -7158,18 +5408,12 @@
         <v>707.6499221647555</v>
       </c>
       <c r="E292" t="n">
-        <v>467.3056524697134</v>
-      </c>
-      <c r="F292" t="n">
-        <v>214.975646639533</v>
-      </c>
-      <c r="G292" t="n">
-        <v>3344.738575929194</v>
+        <v>2662.457276819948</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45218</v>
+        <v>45949</v>
       </c>
       <c r="B293" t="n">
         <v>1025.226470607868</v>
@@ -7181,18 +5425,12 @@
         <v>675.0030135473236</v>
       </c>
       <c r="E293" t="n">
-        <v>484.3857340790321</v>
-      </c>
-      <c r="F293" t="n">
-        <v>250.6426300713742</v>
-      </c>
-      <c r="G293" t="n">
-        <v>3349.13888091555</v>
+        <v>2614.110516765144</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45219</v>
+        <v>45950</v>
       </c>
       <c r="B294" t="n">
         <v>1021.426110523274</v>
@@ -7204,18 +5442,12 @@
         <v>691.8752798808928</v>
       </c>
       <c r="E294" t="n">
-        <v>491.5754912708202</v>
-      </c>
-      <c r="F294" t="n">
-        <v>238.1956619699047</v>
-      </c>
-      <c r="G294" t="n">
-        <v>3355.765629909207</v>
+        <v>2625.994476668482</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45220</v>
+        <v>45951</v>
       </c>
       <c r="B295" t="n">
         <v>1094.420466108337</v>
@@ -7227,18 +5459,12 @@
         <v>759.094100117465</v>
       </c>
       <c r="E295" t="n">
-        <v>468.0256374959761</v>
-      </c>
-      <c r="F295" t="n">
-        <v>224.2343070324902</v>
-      </c>
-      <c r="G295" t="n">
-        <v>3475.392236801645</v>
+        <v>2783.132292273178</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45221</v>
+        <v>45952</v>
       </c>
       <c r="B296" t="n">
         <v>1070.865168504063</v>
@@ -7250,18 +5476,12 @@
         <v>745.6672932003173</v>
       </c>
       <c r="E296" t="n">
-        <v>451.3041295954322</v>
-      </c>
-      <c r="F296" t="n">
-        <v>246.1453177959551</v>
-      </c>
-      <c r="G296" t="n">
-        <v>3428.305524833864</v>
+        <v>2730.856077442477</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45222</v>
+        <v>45953</v>
       </c>
       <c r="B297" t="n">
         <v>1019.470797354675</v>
@@ -7273,18 +5493,12 @@
         <v>705.3388384762878</v>
       </c>
       <c r="E297" t="n">
-        <v>471.8798375534941</v>
-      </c>
-      <c r="F297" t="n">
-        <v>256.9978246305205</v>
-      </c>
-      <c r="G297" t="n">
-        <v>3346.480919169402</v>
+        <v>2617.603256985387</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45223</v>
+        <v>45954</v>
       </c>
       <c r="B298" t="n">
         <v>1100.225825413743</v>
@@ -7296,18 +5510,12 @@
         <v>694.9620923508365</v>
       </c>
       <c r="E298" t="n">
-        <v>448.4402344968737</v>
-      </c>
-      <c r="F298" t="n">
-        <v>239.7187046318265</v>
-      </c>
-      <c r="G298" t="n">
-        <v>3386.091747098702</v>
+        <v>2697.932807970002</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45224</v>
+        <v>45955</v>
       </c>
       <c r="B299" t="n">
         <v>1071.767847272167</v>
@@ -7319,18 +5527,12 @@
         <v>699.8715576286744</v>
       </c>
       <c r="E299" t="n">
-        <v>503.1160492047345</v>
-      </c>
-      <c r="F299" t="n">
-        <v>256.2709246381701</v>
-      </c>
-      <c r="G299" t="n">
-        <v>3452.315329644992</v>
+        <v>2692.928355802087</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45225</v>
+        <v>45956</v>
       </c>
       <c r="B300" t="n">
         <v>1098.230307123415</v>
@@ -7342,18 +5544,12 @@
         <v>713.5934399720088</v>
       </c>
       <c r="E300" t="n">
-        <v>467.3249310914423</v>
-      </c>
-      <c r="F300" t="n">
-        <v>259.472715925324</v>
-      </c>
-      <c r="G300" t="n">
-        <v>3442.977194924354</v>
+        <v>2716.179547907587</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45226</v>
+        <v>45957</v>
       </c>
       <c r="B301" t="n">
         <v>1090.280060815917</v>
@@ -7365,18 +5561,12 @@
         <v>664.4607012509191</v>
       </c>
       <c r="E301" t="n">
-        <v>452.7590865867443</v>
-      </c>
-      <c r="F301" t="n">
-        <v>255.2347769384622</v>
-      </c>
-      <c r="G301" t="n">
-        <v>3360.387695342337</v>
+        <v>2652.39383181713</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45227</v>
+        <v>45958</v>
       </c>
       <c r="B302" t="n">
         <v>1018.587162488672</v>
@@ -7388,18 +5578,12 @@
         <v>690.7153972766014</v>
       </c>
       <c r="E302" t="n">
-        <v>466.7799110588685</v>
-      </c>
-      <c r="F302" t="n">
-        <v>260.0850190065559</v>
-      </c>
-      <c r="G302" t="n">
-        <v>3360.312945615061</v>
+        <v>2633.448015549637</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45228</v>
+        <v>45959</v>
       </c>
       <c r="B303" t="n">
         <v>1033.292813344196</v>
@@ -7411,18 +5595,12 @@
         <v>647.8307654881816</v>
       </c>
       <c r="E303" t="n">
-        <v>432.2612968998423</v>
-      </c>
-      <c r="F303" t="n">
-        <v>247.8577776715122</v>
-      </c>
-      <c r="G303" t="n">
-        <v>3273.314338324554</v>
+        <v>2593.195263753199</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45229</v>
+        <v>45960</v>
       </c>
       <c r="B304" t="n">
         <v>1099.957929261827</v>
@@ -7434,18 +5612,12 @@
         <v>718.3356542489587</v>
       </c>
       <c r="E304" t="n">
-        <v>447.2385842569483</v>
-      </c>
-      <c r="F304" t="n">
-        <v>242.8968446158435</v>
-      </c>
-      <c r="G304" t="n">
-        <v>3498.459124057598</v>
+        <v>2808.323695184807</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45230</v>
+        <v>45961</v>
       </c>
       <c r="B305" t="n">
         <v>1094.429342757249</v>
@@ -7457,18 +5629,12 @@
         <v>709.8856564352741</v>
       </c>
       <c r="E305" t="n">
-        <v>490.2611755966462</v>
-      </c>
-      <c r="F305" t="n">
-        <v>230.6386253378081</v>
-      </c>
-      <c r="G305" t="n">
-        <v>3349.447605655443</v>
+        <v>2628.547804720988</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45231</v>
+        <v>45962</v>
       </c>
       <c r="B306" t="n">
         <v>1064.209284828833</v>
@@ -7480,18 +5646,12 @@
         <v>691.4454942653842</v>
       </c>
       <c r="E306" t="n">
-        <v>451.7084096579266</v>
-      </c>
-      <c r="F306" t="n">
-        <v>240.5610889899012</v>
-      </c>
-      <c r="G306" t="n">
-        <v>3419.808971923459</v>
+        <v>2727.539473275631</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45232</v>
+        <v>45963</v>
       </c>
       <c r="B307" t="n">
         <v>1072.489973337859</v>
@@ -7503,18 +5663,12 @@
         <v>754.6828942393154</v>
       </c>
       <c r="E307" t="n">
-        <v>450.6795114392606</v>
-      </c>
-      <c r="F307" t="n">
-        <v>234.7102060252481</v>
-      </c>
-      <c r="G307" t="n">
-        <v>3492.45387341331</v>
+        <v>2807.064155948801</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45233</v>
+        <v>45964</v>
       </c>
       <c r="B308" t="n">
         <v>1131.901535636669</v>
@@ -7526,18 +5680,12 @@
         <v>658.8449223127919</v>
       </c>
       <c r="E308" t="n">
-        <v>473.2248636207238</v>
-      </c>
-      <c r="F308" t="n">
-        <v>267.3355717065</v>
-      </c>
-      <c r="G308" t="n">
-        <v>3385.376070221823</v>
+        <v>2644.815634894599</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45234</v>
+        <v>45965</v>
       </c>
       <c r="B309" t="n">
         <v>1039.859589994761</v>
@@ -7549,18 +5697,12 @@
         <v>658.5445475341871</v>
       </c>
       <c r="E309" t="n">
-        <v>486.6438016212995</v>
-      </c>
-      <c r="F309" t="n">
-        <v>245.443153925117</v>
-      </c>
-      <c r="G309" t="n">
-        <v>3345.620075860868</v>
+        <v>2613.533120314452</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45235</v>
+        <v>45966</v>
       </c>
       <c r="B310" t="n">
         <v>1098.237806421921</v>
@@ -7572,18 +5714,12 @@
         <v>710.5505665641604</v>
       </c>
       <c r="E310" t="n">
-        <v>482.9872978150851</v>
-      </c>
-      <c r="F310" t="n">
-        <v>248.3073653220372</v>
-      </c>
-      <c r="G310" t="n">
-        <v>3460.955532016299</v>
+        <v>2729.660868879177</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45236</v>
+        <v>45967</v>
       </c>
       <c r="B311" t="n">
         <v>1062.242712048064</v>
@@ -7595,18 +5731,12 @@
         <v>731.6149237954097</v>
       </c>
       <c r="E311" t="n">
-        <v>491.1233839635607</v>
-      </c>
-      <c r="F311" t="n">
-        <v>253.6476610907124</v>
-      </c>
-      <c r="G311" t="n">
-        <v>3415.534360049647</v>
+        <v>2670.763314995374</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45237</v>
+        <v>45968</v>
       </c>
       <c r="B312" t="n">
         <v>1062.962033937903</v>
@@ -7618,18 +5748,12 @@
         <v>754.151528320251</v>
       </c>
       <c r="E312" t="n">
-        <v>458.8176887003414</v>
-      </c>
-      <c r="F312" t="n">
-        <v>245.5870121536115</v>
-      </c>
-      <c r="G312" t="n">
-        <v>3424.778674281673</v>
+        <v>2720.37397342772</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45238</v>
+        <v>45969</v>
       </c>
       <c r="B313" t="n">
         <v>1130.302733781892</v>
@@ -7641,18 +5765,12 @@
         <v>690.1316420740095</v>
       </c>
       <c r="E313" t="n">
-        <v>439.622507345577</v>
-      </c>
-      <c r="F313" t="n">
-        <v>260.4355393753717</v>
-      </c>
-      <c r="G313" t="n">
-        <v>3418.290775082432</v>
+        <v>2718.232728361483</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45239</v>
+        <v>45970</v>
       </c>
       <c r="B314" t="n">
         <v>1118.176251773724</v>
@@ -7664,18 +5782,12 @@
         <v>748.5269646349097</v>
       </c>
       <c r="E314" t="n">
-        <v>504.4415432323296</v>
-      </c>
-      <c r="F314" t="n">
-        <v>243.9987475707529</v>
-      </c>
-      <c r="G314" t="n">
-        <v>3627.376297585491</v>
+        <v>2878.936006782409</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45240</v>
+        <v>45971</v>
       </c>
       <c r="B315" t="n">
         <v>1119.145896692954</v>
@@ -7687,18 +5799,12 @@
         <v>712.7088005816855</v>
       </c>
       <c r="E315" t="n">
-        <v>464.9054492384948</v>
-      </c>
-      <c r="F315" t="n">
-        <v>248.4807024548064</v>
-      </c>
-      <c r="G315" t="n">
-        <v>3526.058906277473</v>
+        <v>2812.672754584172</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45241</v>
+        <v>45972</v>
       </c>
       <c r="B316" t="n">
         <v>1145.332457669323</v>
@@ -7710,18 +5816,12 @@
         <v>711.2605177303374</v>
       </c>
       <c r="E316" t="n">
-        <v>466.7327983685752</v>
-      </c>
-      <c r="F316" t="n">
-        <v>239.5602774421982</v>
-      </c>
-      <c r="G316" t="n">
-        <v>3560.928314626417</v>
+        <v>2854.635238815644</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45242</v>
+        <v>45973</v>
       </c>
       <c r="B317" t="n">
         <v>1082.719611233782</v>
@@ -7733,18 +5833,12 @@
         <v>741.1088875165686</v>
       </c>
       <c r="E317" t="n">
-        <v>501.8425392494956</v>
-      </c>
-      <c r="F317" t="n">
-        <v>237.5679126431713</v>
-      </c>
-      <c r="G317" t="n">
-        <v>3534.21332964984</v>
+        <v>2794.802877757173</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45243</v>
+        <v>45974</v>
       </c>
       <c r="B318" t="n">
         <v>1117.400439795093</v>
@@ -7756,18 +5850,12 @@
         <v>728.1133817021189</v>
       </c>
       <c r="E318" t="n">
-        <v>485.6570548503629</v>
-      </c>
-      <c r="F318" t="n">
-        <v>243.3085728220523</v>
-      </c>
-      <c r="G318" t="n">
-        <v>3476.099655284722</v>
+        <v>2747.134027612307</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45244</v>
+        <v>45975</v>
       </c>
       <c r="B319" t="n">
         <v>1069.444959873929</v>
@@ -7779,18 +5867,12 @@
         <v>664.2062462625416</v>
       </c>
       <c r="E319" t="n">
-        <v>477.8216991493268</v>
-      </c>
-      <c r="F319" t="n">
-        <v>248.5534614851688</v>
-      </c>
-      <c r="G319" t="n">
-        <v>3382.256690270049</v>
+        <v>2655.881529635553</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45245</v>
+        <v>45976</v>
       </c>
       <c r="B320" t="n">
         <v>1102.843913794831</v>
@@ -7802,18 +5884,12 @@
         <v>761.2143532705147</v>
       </c>
       <c r="E320" t="n">
-        <v>522.2757206932367</v>
-      </c>
-      <c r="F320" t="n">
-        <v>249.3616690582328</v>
-      </c>
-      <c r="G320" t="n">
-        <v>3603.063507581742</v>
+        <v>2831.426117830272</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45246</v>
+        <v>45977</v>
       </c>
       <c r="B321" t="n">
         <v>1081.827185053438</v>
@@ -7825,18 +5901,12 @@
         <v>752.3098509242295</v>
       </c>
       <c r="E321" t="n">
-        <v>465.794355593549</v>
-      </c>
-      <c r="F321" t="n">
-        <v>241.3720933149808</v>
-      </c>
-      <c r="G321" t="n">
-        <v>3439.368561253321</v>
+        <v>2732.202112344792</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45247</v>
+        <v>45978</v>
       </c>
       <c r="B322" t="n">
         <v>1094.903965544471</v>
@@ -7848,18 +5918,12 @@
         <v>701.0709860913364</v>
       </c>
       <c r="E322" t="n">
-        <v>492.6855680886925</v>
-      </c>
-      <c r="F322" t="n">
-        <v>237.216215631118</v>
-      </c>
-      <c r="G322" t="n">
-        <v>3503.930402952829</v>
+        <v>2774.028619233019</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45248</v>
+        <v>45979</v>
       </c>
       <c r="B323" t="n">
         <v>1121.552574549479</v>
@@ -7871,18 +5935,12 @@
         <v>729.2387419847752</v>
       </c>
       <c r="E323" t="n">
-        <v>478.6820260074725</v>
-      </c>
-      <c r="F323" t="n">
-        <v>249.346091529987</v>
-      </c>
-      <c r="G323" t="n">
-        <v>3522.697454222443</v>
+        <v>2794.669336684983</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45249</v>
+        <v>45980</v>
       </c>
       <c r="B324" t="n">
         <v>1052.644603955032</v>
@@ -7894,18 +5952,12 @@
         <v>732.0459023171938</v>
       </c>
       <c r="E324" t="n">
-        <v>483.7986910556667</v>
-      </c>
-      <c r="F324" t="n">
-        <v>235.9437929885977</v>
-      </c>
-      <c r="G324" t="n">
-        <v>3437.349128903374</v>
+        <v>2717.60664485911</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45250</v>
+        <v>45981</v>
       </c>
       <c r="B325" t="n">
         <v>1199.955901960045</v>
@@ -7917,18 +5969,12 @@
         <v>731.9624578266568</v>
       </c>
       <c r="E325" t="n">
-        <v>509.6002295812252</v>
-      </c>
-      <c r="F325" t="n">
-        <v>261.477890230173</v>
-      </c>
-      <c r="G325" t="n">
-        <v>3695.399699062862</v>
+        <v>2924.321579251464</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45251</v>
+        <v>45982</v>
       </c>
       <c r="B326" t="n">
         <v>1046.836174821517</v>
@@ -7940,18 +5986,12 @@
         <v>706.149450228418</v>
       </c>
       <c r="E326" t="n">
-        <v>487.226477707235</v>
-      </c>
-      <c r="F326" t="n">
-        <v>252.7744540793689</v>
-      </c>
-      <c r="G326" t="n">
-        <v>3460.750341895333</v>
+        <v>2720.74941010873</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45252</v>
+        <v>45983</v>
       </c>
       <c r="B327" t="n">
         <v>1038.247339271596</v>
@@ -7963,18 +6003,12 @@
         <v>700.330511230766</v>
       </c>
       <c r="E327" t="n">
-        <v>487.8816806684622</v>
-      </c>
-      <c r="F327" t="n">
-        <v>237.7540070543934</v>
-      </c>
-      <c r="G327" t="n">
-        <v>3400.265041448399</v>
+        <v>2674.629353725544</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45253</v>
+        <v>45984</v>
       </c>
       <c r="B328" t="n">
         <v>1158.700868830917</v>
@@ -7986,18 +6020,12 @@
         <v>728.1385268780438</v>
       </c>
       <c r="E328" t="n">
-        <v>501.9821294963657</v>
-      </c>
-      <c r="F328" t="n">
-        <v>250.9651872103206</v>
-      </c>
-      <c r="G328" t="n">
-        <v>3650.066251558038</v>
+        <v>2897.118934851352</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45254</v>
+        <v>45985</v>
       </c>
       <c r="B329" t="n">
         <v>1142.235447686634</v>
@@ -8009,18 +6037,12 @@
         <v>756.113544576419</v>
       </c>
       <c r="E329" t="n">
-        <v>476.6732250621792</v>
-      </c>
-      <c r="F329" t="n">
-        <v>244.3262210480096</v>
-      </c>
-      <c r="G329" t="n">
-        <v>3539.751300428699</v>
+        <v>2818.751854318511</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45255</v>
+        <v>45986</v>
       </c>
       <c r="B330" t="n">
         <v>1135.733322156531</v>
@@ -8032,18 +6054,12 @@
         <v>745.1276655738434</v>
       </c>
       <c r="E330" t="n">
-        <v>466.7395057321737</v>
-      </c>
-      <c r="F330" t="n">
-        <v>254.3711619381939</v>
-      </c>
-      <c r="G330" t="n">
-        <v>3591.004276937305</v>
+        <v>2869.893609266937</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45256</v>
+        <v>45987</v>
       </c>
       <c r="B331" t="n">
         <v>1137.837248117834</v>
@@ -8055,18 +6071,12 @@
         <v>718.8079289556101</v>
       </c>
       <c r="E331" t="n">
-        <v>460.6525980769883</v>
-      </c>
-      <c r="F331" t="n">
-        <v>264.3037587988542</v>
-      </c>
-      <c r="G331" t="n">
-        <v>3571.345287203502</v>
+        <v>2846.388930327659</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45257</v>
+        <v>45988</v>
       </c>
       <c r="B332" t="n">
         <v>1107.717485728542</v>
@@ -8078,18 +6088,12 @@
         <v>750.3542309916836</v>
       </c>
       <c r="E332" t="n">
-        <v>446.0402210600036</v>
-      </c>
-      <c r="F332" t="n">
-        <v>231.0182622837206</v>
-      </c>
-      <c r="G332" t="n">
-        <v>3487.183950560955</v>
+        <v>2810.125467217231</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45258</v>
+        <v>45989</v>
       </c>
       <c r="B333" t="n">
         <v>1065.393750108946</v>
@@ -8101,18 +6105,12 @@
         <v>645.0665896757575</v>
       </c>
       <c r="E333" t="n">
-        <v>516.6333890396774</v>
-      </c>
-      <c r="F333" t="n">
-        <v>258.3148934320895</v>
-      </c>
-      <c r="G333" t="n">
-        <v>3460.09849310364</v>
+        <v>2685.150210631874</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45259</v>
+        <v>45990</v>
       </c>
       <c r="B334" t="n">
         <v>1115.989710755856</v>
@@ -8124,18 +6122,12 @@
         <v>760.394062148576</v>
       </c>
       <c r="E334" t="n">
-        <v>465.655032038892</v>
-      </c>
-      <c r="F334" t="n">
-        <v>250.8040718174568</v>
-      </c>
-      <c r="G334" t="n">
-        <v>3510.956891057891</v>
+        <v>2794.497787201542</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45260</v>
+        <v>45991</v>
       </c>
       <c r="B335" t="n">
         <v>1080.300353687839</v>
@@ -8147,18 +6139,12 @@
         <v>683.3054369495055</v>
       </c>
       <c r="E335" t="n">
-        <v>476.2688469286131</v>
-      </c>
-      <c r="F335" t="n">
-        <v>260.521973310055</v>
-      </c>
-      <c r="G335" t="n">
-        <v>3503.414478423829</v>
+        <v>2766.623658185161</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45261</v>
+        <v>45992</v>
       </c>
       <c r="B336" t="n">
         <v>1164.888892285677</v>
@@ -8170,18 +6156,12 @@
         <v>722.2664279530477</v>
       </c>
       <c r="E336" t="n">
-        <v>479.7435390434422</v>
-      </c>
-      <c r="F336" t="n">
-        <v>256.632901309679</v>
-      </c>
-      <c r="G336" t="n">
-        <v>3592.130888854525</v>
+        <v>2855.754448501405</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45262</v>
+        <v>45993</v>
       </c>
       <c r="B337" t="n">
         <v>1110.769575908895</v>
@@ -8193,18 +6173,12 @@
         <v>698.8999694273499</v>
       </c>
       <c r="E337" t="n">
-        <v>489.7871088925179</v>
-      </c>
-      <c r="F337" t="n">
-        <v>248.3335065686641</v>
-      </c>
-      <c r="G337" t="n">
-        <v>3498.956153554757</v>
+        <v>2760.835538093575</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45263</v>
+        <v>45994</v>
       </c>
       <c r="B338" t="n">
         <v>1078.851756148796</v>
@@ -8216,18 +6190,12 @@
         <v>700.8702090653348</v>
       </c>
       <c r="E338" t="n">
-        <v>500.8524115526879</v>
-      </c>
-      <c r="F338" t="n">
-        <v>254.1200249962868</v>
-      </c>
-      <c r="G338" t="n">
-        <v>3547.041239202197</v>
+        <v>2792.068802653223</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45264</v>
+        <v>45995</v>
       </c>
       <c r="B339" t="n">
         <v>1106.075680827065</v>
@@ -8239,18 +6207,12 @@
         <v>769.0567672460613</v>
       </c>
       <c r="E339" t="n">
-        <v>509.2731356556869</v>
-      </c>
-      <c r="F339" t="n">
-        <v>250.5460495794767</v>
-      </c>
-      <c r="G339" t="n">
-        <v>3581.401432097058</v>
+        <v>2821.582246861894</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45265</v>
+        <v>45996</v>
       </c>
       <c r="B340" t="n">
         <v>1144.82363853974</v>
@@ -8262,18 +6224,12 @@
         <v>719.0437599222385</v>
       </c>
       <c r="E340" t="n">
-        <v>476.1136535512287</v>
-      </c>
-      <c r="F340" t="n">
-        <v>266.3068499063006</v>
-      </c>
-      <c r="G340" t="n">
-        <v>3529.973466579706</v>
+        <v>2787.552963122177</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45266</v>
+        <v>45997</v>
       </c>
       <c r="B341" t="n">
         <v>1098.036213104758</v>
@@ -8285,18 +6241,12 @@
         <v>743.6902215954441</v>
       </c>
       <c r="E341" t="n">
-        <v>487.6155641817988</v>
-      </c>
-      <c r="F341" t="n">
-        <v>257.2691610538907</v>
-      </c>
-      <c r="G341" t="n">
-        <v>3501.227566901377</v>
+        <v>2756.342841665688</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45267</v>
+        <v>45998</v>
       </c>
       <c r="B342" t="n">
         <v>1087.169619960447</v>
@@ -8308,18 +6258,12 @@
         <v>741.718953660974</v>
       </c>
       <c r="E342" t="n">
-        <v>497.1357502713707</v>
-      </c>
-      <c r="F342" t="n">
-        <v>277.3816098324208</v>
-      </c>
-      <c r="G342" t="n">
-        <v>3604.987805566097</v>
+        <v>2830.470445462306</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45268</v>
+        <v>45999</v>
       </c>
       <c r="B343" t="n">
         <v>1142.535561653998</v>
@@ -8331,18 +6275,12 @@
         <v>751.7436797572424</v>
       </c>
       <c r="E343" t="n">
-        <v>488.2410258838144</v>
-      </c>
-      <c r="F343" t="n">
-        <v>257.2377346661158</v>
-      </c>
-      <c r="G343" t="n">
-        <v>3572.975344890241</v>
+        <v>2827.496584340311</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45269</v>
+        <v>46000</v>
       </c>
       <c r="B344" t="n">
         <v>1144.681987931075</v>
@@ -8354,18 +6292,12 @@
         <v>753.2055417144906</v>
       </c>
       <c r="E344" t="n">
-        <v>526.2409294421046</v>
-      </c>
-      <c r="F344" t="n">
-        <v>254.9267571502337</v>
-      </c>
-      <c r="G344" t="n">
-        <v>3735.462109810898</v>
+        <v>2954.29442321856</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45270</v>
+        <v>46001</v>
       </c>
       <c r="B345" t="n">
         <v>1109.180386942376</v>
@@ -8377,18 +6309,12 @@
         <v>698.0230505956659</v>
       </c>
       <c r="E345" t="n">
-        <v>499.1328223767047</v>
-      </c>
-      <c r="F345" t="n">
-        <v>244.5316474537288</v>
-      </c>
-      <c r="G345" t="n">
-        <v>3451.83080631611</v>
+        <v>2708.166336485677</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45271</v>
+        <v>46002</v>
       </c>
       <c r="B346" t="n">
         <v>1113.080472501447</v>
@@ -8400,18 +6326,12 @@
         <v>782.8746584735954</v>
       </c>
       <c r="E346" t="n">
-        <v>513.237976681301</v>
-      </c>
-      <c r="F346" t="n">
-        <v>243.4188784620432</v>
-      </c>
-      <c r="G346" t="n">
-        <v>3706.684198326022</v>
+        <v>2950.027343182678</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45272</v>
+        <v>46003</v>
       </c>
       <c r="B347" t="n">
         <v>1150.35020690847</v>
@@ -8423,18 +6343,12 @@
         <v>733.9333172706561</v>
       </c>
       <c r="E347" t="n">
-        <v>507.6500411166494</v>
-      </c>
-      <c r="F347" t="n">
-        <v>245.4231866897278</v>
-      </c>
-      <c r="G347" t="n">
-        <v>3637.330639396927</v>
+        <v>2884.25741159055</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45273</v>
+        <v>46004</v>
       </c>
       <c r="B348" t="n">
         <v>1068.468816755897</v>
@@ -8446,18 +6360,12 @@
         <v>701.3340417652041</v>
       </c>
       <c r="E348" t="n">
-        <v>515.3520948585324</v>
-      </c>
-      <c r="F348" t="n">
-        <v>265.0810827621208</v>
-      </c>
-      <c r="G348" t="n">
-        <v>3531.312820407139</v>
+        <v>2750.879642786486</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45274</v>
+        <v>46005</v>
       </c>
       <c r="B349" t="n">
         <v>1072.634688815543</v>
@@ -8469,18 +6377,12 @@
         <v>734.7785724353146</v>
       </c>
       <c r="E349" t="n">
-        <v>499.601439431354</v>
-      </c>
-      <c r="F349" t="n">
-        <v>266.298969682309</v>
-      </c>
-      <c r="G349" t="n">
-        <v>3538.486677801214</v>
+        <v>2772.586268687551</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45275</v>
+        <v>46006</v>
       </c>
       <c r="B350" t="n">
         <v>1109.229545649317</v>
@@ -8492,18 +6394,12 @@
         <v>798.1348281970494</v>
       </c>
       <c r="E350" t="n">
-        <v>477.1375465453636</v>
-      </c>
-      <c r="F350" t="n">
-        <v>243.5321989766028</v>
-      </c>
-      <c r="G350" t="n">
-        <v>3636.243923876899</v>
+        <v>2915.574178354932</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45276</v>
+        <v>46007</v>
       </c>
       <c r="B351" t="n">
         <v>1136.631826660997</v>
@@ -8515,18 +6411,12 @@
         <v>778.4992770079962</v>
       </c>
       <c r="E351" t="n">
-        <v>509.8653604344883</v>
-      </c>
-      <c r="F351" t="n">
-        <v>271.9477560335279</v>
-      </c>
-      <c r="G351" t="n">
-        <v>3692.045362103387</v>
+        <v>2910.232245635371</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45277</v>
+        <v>46008</v>
       </c>
       <c r="B352" t="n">
         <v>1165.010048768281</v>
@@ -8538,18 +6428,12 @@
         <v>748.7397199156123</v>
       </c>
       <c r="E352" t="n">
-        <v>486.6327023110771</v>
-      </c>
-      <c r="F352" t="n">
-        <v>256.2255938119496</v>
-      </c>
-      <c r="G352" t="n">
-        <v>3701.812881355115</v>
+        <v>2958.954585232088</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45278</v>
+        <v>46009</v>
       </c>
       <c r="B353" t="n">
         <v>1225.400534246883</v>
@@ -8561,18 +6445,12 @@
         <v>746.7334367191596</v>
       </c>
       <c r="E353" t="n">
-        <v>489.6540993966829</v>
-      </c>
-      <c r="F353" t="n">
-        <v>263.2098847394047</v>
-      </c>
-      <c r="G353" t="n">
-        <v>3738.313293192824</v>
+        <v>2985.449309056736</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45279</v>
+        <v>46010</v>
       </c>
       <c r="B354" t="n">
         <v>1196.690829859684</v>
@@ -8584,18 +6462,12 @@
         <v>748.7884009236395</v>
       </c>
       <c r="E354" t="n">
-        <v>512.9292599472992</v>
-      </c>
-      <c r="F354" t="n">
-        <v>280.5767020172009</v>
-      </c>
-      <c r="G354" t="n">
-        <v>3752.512625151934</v>
+        <v>2959.006663187434</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45280</v>
+        <v>46011</v>
       </c>
       <c r="B355" t="n">
         <v>1147.992623514967</v>
@@ -8607,18 +6479,12 @@
         <v>819.5708109020534</v>
       </c>
       <c r="E355" t="n">
-        <v>533.8185625241333</v>
-      </c>
-      <c r="F355" t="n">
-        <v>275.8981594136962</v>
-      </c>
-      <c r="G355" t="n">
-        <v>3767.026570228303</v>
+        <v>2957.309848290473</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45281</v>
+        <v>46012</v>
       </c>
       <c r="B356" t="n">
         <v>1157.226518620541</v>
@@ -8630,18 +6496,12 @@
         <v>771.4231299889271</v>
       </c>
       <c r="E356" t="n">
-        <v>505.4386761398841</v>
-      </c>
-      <c r="F356" t="n">
-        <v>261.7940269380652</v>
-      </c>
-      <c r="G356" t="n">
-        <v>3700.469041813169</v>
+        <v>2933.23633873522</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45282</v>
+        <v>46013</v>
       </c>
       <c r="B357" t="n">
         <v>1110.244217349962</v>
@@ -8653,18 +6513,12 @@
         <v>775.2369648604595</v>
       </c>
       <c r="E357" t="n">
-        <v>512.3486309707662</v>
-      </c>
-      <c r="F357" t="n">
-        <v>256.6470779592942</v>
-      </c>
-      <c r="G357" t="n">
-        <v>3670.609932096642</v>
+        <v>2901.614223166582</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45283</v>
+        <v>46014</v>
       </c>
       <c r="B358" t="n">
         <v>1161.643461133953</v>
@@ -8676,18 +6530,12 @@
         <v>787.0712648564971</v>
       </c>
       <c r="E358" t="n">
-        <v>542.1790725517833</v>
-      </c>
-      <c r="F358" t="n">
-        <v>247.4135768285997</v>
-      </c>
-      <c r="G358" t="n">
-        <v>3680.520280124821</v>
+        <v>2890.927630744437</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45284</v>
+        <v>46015</v>
       </c>
       <c r="B359" t="n">
         <v>1150.339190842667</v>
@@ -8699,18 +6547,12 @@
         <v>766.0493684870972</v>
       </c>
       <c r="E359" t="n">
-        <v>511.6288495539504</v>
-      </c>
-      <c r="F359" t="n">
-        <v>259.0757763207055</v>
-      </c>
-      <c r="G359" t="n">
-        <v>3644.317385635397</v>
+        <v>2873.612759760741</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45285</v>
+        <v>46016</v>
       </c>
       <c r="B360" t="n">
         <v>1183.115123526969</v>
@@ -8722,18 +6564,12 @@
         <v>761.1987961835835</v>
       </c>
       <c r="E360" t="n">
-        <v>559.1452201059922</v>
-      </c>
-      <c r="F360" t="n">
-        <v>269.2990587243352</v>
-      </c>
-      <c r="G360" t="n">
-        <v>3818.583631062538</v>
+        <v>2990.13935223221</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45286</v>
+        <v>46017</v>
       </c>
       <c r="B361" t="n">
         <v>1127.82828307764</v>
@@ -8745,18 +6581,12 @@
         <v>761.6303336843132</v>
       </c>
       <c r="E361" t="n">
-        <v>519.2491583831647</v>
-      </c>
-      <c r="F361" t="n">
-        <v>257.9410866178559</v>
-      </c>
-      <c r="G361" t="n">
-        <v>3685.718171800062</v>
+        <v>2908.527926799041</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45287</v>
+        <v>46018</v>
       </c>
       <c r="B362" t="n">
         <v>1197.370845838314</v>
@@ -8768,18 +6598,12 @@
         <v>766.0441310164041</v>
       </c>
       <c r="E362" t="n">
-        <v>473.9505659690262</v>
-      </c>
-      <c r="F362" t="n">
-        <v>262.3631909512306</v>
-      </c>
-      <c r="G362" t="n">
-        <v>3713.229301005704</v>
+        <v>2976.915544085447</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45288</v>
+        <v>46019</v>
       </c>
       <c r="B363" t="n">
         <v>1250.256702969897</v>
@@ -8791,18 +6615,12 @@
         <v>769.8110706441075</v>
       </c>
       <c r="E363" t="n">
-        <v>525.3958424144087</v>
-      </c>
-      <c r="F363" t="n">
-        <v>269.9820545349821</v>
-      </c>
-      <c r="G363" t="n">
-        <v>3844.004504038815</v>
+        <v>3048.626607089424</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45289</v>
+        <v>46020</v>
       </c>
       <c r="B364" t="n">
         <v>1170.400025854832</v>
@@ -8814,18 +6632,12 @@
         <v>794.6730760179231</v>
       </c>
       <c r="E364" t="n">
-        <v>521.2256886105178</v>
-      </c>
-      <c r="F364" t="n">
-        <v>266.9416156985059</v>
-      </c>
-      <c r="G364" t="n">
-        <v>3788.654103603868</v>
+        <v>3000.486799294844</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45290</v>
+        <v>46021</v>
       </c>
       <c r="B365" t="n">
         <v>1198.143424942672</v>
@@ -8837,18 +6649,12 @@
         <v>772.5301025120616</v>
       </c>
       <c r="E365" t="n">
-        <v>537.9712008679513</v>
-      </c>
-      <c r="F365" t="n">
-        <v>264.7586620461057</v>
-      </c>
-      <c r="G365" t="n">
-        <v>3777.773616720864</v>
+        <v>2975.043753806807</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45291</v>
+        <v>46022</v>
       </c>
       <c r="B366" t="n">
         <v>1214.785863969972</v>
@@ -8860,13 +6666,7 @@
         <v>793.5633338359611</v>
       </c>
       <c r="E366" t="n">
-        <v>528.5314261627618</v>
-      </c>
-      <c r="F366" t="n">
-        <v>272.3954222128267</v>
-      </c>
-      <c r="G366" t="n">
-        <v>3807.44537506996</v>
+        <v>3006.518526694371</v>
       </c>
     </row>
   </sheetData>
